--- a/data-migration/xlsx_1900-/1906_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1906_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC16BBB6-82B9-4A29-B8F1-4A50273039E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6597DC-A901-4B6F-B163-7368E461BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3368,9 +3368,6 @@
     <t>huber_m</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>schaer_jf</t>
   </si>
   <si>
@@ -3420,6 +3417,9 @@
   </si>
   <si>
     <t>schinz_h</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
   </si>
 </sst>
 </file>
@@ -3455,8 +3455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3764,20 +3763,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="H351" sqref="H351"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="I252" sqref="I252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1906</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>1096</v>
       </c>
       <c r="F1" t="s">
@@ -3803,7 +3802,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1906</v>
       </c>
@@ -3813,7 +3812,7 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>1096</v>
       </c>
       <c r="F2" t="s">
@@ -3829,7 +3828,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1906</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>1096</v>
       </c>
       <c r="F3" t="s">
@@ -3851,11 +3850,11 @@
       <c r="H3" t="s">
         <v>991</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1906</v>
       </c>
@@ -3865,7 +3864,7 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>1096</v>
       </c>
       <c r="F4" t="s">
@@ -3877,11 +3876,11 @@
       <c r="H4" t="s">
         <v>991</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1906</v>
       </c>
@@ -3891,7 +3890,7 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>1096</v>
       </c>
       <c r="F5" t="s">
@@ -3903,11 +3902,11 @@
       <c r="H5" t="s">
         <v>1106</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1906</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>1096</v>
       </c>
       <c r="F6" t="s">
@@ -3929,11 +3928,11 @@
       <c r="H6" t="s">
         <v>992</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>1096</v>
       </c>
       <c r="F7" t="s">
@@ -3955,11 +3954,11 @@
       <c r="H7" t="s">
         <v>992</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1906</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>1096</v>
       </c>
       <c r="F8" t="s">
@@ -3981,11 +3980,11 @@
       <c r="H8" t="s">
         <v>992</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1906</v>
       </c>
@@ -3995,7 +3994,7 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>1096</v>
       </c>
       <c r="F9" t="s">
@@ -4011,7 +4010,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1906</v>
       </c>
@@ -4021,7 +4020,7 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>1096</v>
       </c>
       <c r="F10" t="s">
@@ -4040,7 +4039,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1906</v>
       </c>
@@ -4050,7 +4049,7 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>1096</v>
       </c>
       <c r="F11" t="s">
@@ -4059,17 +4058,17 @@
       <c r="G11" t="s">
         <v>759</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>1103</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J11" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1906</v>
       </c>
@@ -4079,7 +4078,7 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>1096</v>
       </c>
       <c r="F12" t="s">
@@ -4088,17 +4087,17 @@
       <c r="G12" t="s">
         <v>760</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>1103</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J12" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1906</v>
       </c>
@@ -4108,7 +4107,7 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>1096</v>
       </c>
       <c r="F13" t="s">
@@ -4120,11 +4119,11 @@
       <c r="H13" t="s">
         <v>990</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1906</v>
       </c>
@@ -4134,7 +4133,7 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>1096</v>
       </c>
       <c r="F14" t="s">
@@ -4146,11 +4145,11 @@
       <c r="H14" t="s">
         <v>1082</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1906</v>
       </c>
@@ -4160,7 +4159,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>1096</v>
       </c>
       <c r="F15" t="s">
@@ -4172,11 +4171,11 @@
       <c r="H15" t="s">
         <v>1082</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1906</v>
       </c>
@@ -4186,7 +4185,7 @@
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>1096</v>
       </c>
       <c r="F16" t="s">
@@ -4198,11 +4197,11 @@
       <c r="H16" t="s">
         <v>990</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1906</v>
       </c>
@@ -4212,7 +4211,7 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>1096</v>
       </c>
       <c r="F17" t="s">
@@ -4224,11 +4223,11 @@
       <c r="H17" t="s">
         <v>990</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1906</v>
       </c>
@@ -4238,7 +4237,7 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>1096</v>
       </c>
       <c r="F18" t="s">
@@ -4247,14 +4246,14 @@
       <c r="G18" t="s">
         <v>764</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>1106</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1906</v>
       </c>
@@ -4264,7 +4263,7 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>1096</v>
       </c>
       <c r="F19" t="s">
@@ -4276,11 +4275,11 @@
       <c r="H19" t="s">
         <v>990</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1906</v>
       </c>
@@ -4290,7 +4289,7 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>1096</v>
       </c>
       <c r="F20" t="s">
@@ -4302,11 +4301,11 @@
       <c r="H20" t="s">
         <v>991</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1906</v>
       </c>
@@ -4316,7 +4315,7 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>1096</v>
       </c>
       <c r="F21" t="s">
@@ -4328,11 +4327,11 @@
       <c r="H21" t="s">
         <v>992</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1906</v>
       </c>
@@ -4342,7 +4341,7 @@
       <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>1096</v>
       </c>
       <c r="F22" t="s">
@@ -4351,14 +4350,14 @@
       <c r="G22" t="s">
         <v>767</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>1106</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1906</v>
       </c>
@@ -4368,7 +4367,7 @@
       <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>1096</v>
       </c>
       <c r="F23" t="s">
@@ -4377,14 +4376,14 @@
       <c r="G23" t="s">
         <v>767</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>1103</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1906</v>
       </c>
@@ -4394,7 +4393,7 @@
       <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>1096</v>
       </c>
       <c r="F24" t="s">
@@ -4406,11 +4405,11 @@
       <c r="H24" t="s">
         <v>1082</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1906</v>
       </c>
@@ -4420,7 +4419,7 @@
       <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>1096</v>
       </c>
       <c r="F25" t="s">
@@ -4432,11 +4431,11 @@
       <c r="H25" t="s">
         <v>990</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1906</v>
       </c>
@@ -4446,7 +4445,7 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>1096</v>
       </c>
       <c r="F26" t="s">
@@ -4455,14 +4454,14 @@
       <c r="G26" t="s">
         <v>769</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>1106</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1906</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1906</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>1097</v>
       </c>
       <c r="F28" t="s">
@@ -4514,7 +4513,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1906</v>
       </c>
@@ -4524,7 +4523,7 @@
       <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>1097</v>
       </c>
       <c r="F29" t="s">
@@ -4533,14 +4532,14 @@
       <c r="G29" t="s">
         <v>772</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>1109</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1906</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>1097</v>
       </c>
       <c r="F30" t="s">
@@ -4566,7 +4565,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1906</v>
       </c>
@@ -4576,7 +4575,7 @@
       <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>1097</v>
       </c>
       <c r="F31" t="s">
@@ -4588,11 +4587,11 @@
       <c r="H31" t="s">
         <v>996</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1906</v>
       </c>
@@ -4602,7 +4601,7 @@
       <c r="D32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>1097</v>
       </c>
       <c r="F32" t="s">
@@ -4614,11 +4613,11 @@
       <c r="H32" t="s">
         <v>996</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1906</v>
       </c>
@@ -4628,7 +4627,7 @@
       <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>1097</v>
       </c>
       <c r="F33" t="s">
@@ -4640,11 +4639,11 @@
       <c r="H33" t="s">
         <v>996</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1906</v>
       </c>
@@ -4654,7 +4653,7 @@
       <c r="D34" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>1097</v>
       </c>
       <c r="F34" t="s">
@@ -4666,11 +4665,11 @@
       <c r="H34" t="s">
         <v>997</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1906</v>
       </c>
@@ -4680,7 +4679,7 @@
       <c r="D35" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>1097</v>
       </c>
       <c r="F35" t="s">
@@ -4692,11 +4691,11 @@
       <c r="H35" t="s">
         <v>997</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1906</v>
       </c>
@@ -4706,7 +4705,7 @@
       <c r="D36" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>1097</v>
       </c>
       <c r="F36" t="s">
@@ -4718,11 +4717,11 @@
       <c r="H36" t="s">
         <v>998</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1906</v>
       </c>
@@ -4732,7 +4731,7 @@
       <c r="D37" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>1097</v>
       </c>
       <c r="F37" t="s">
@@ -4744,11 +4743,11 @@
       <c r="H37" t="s">
         <v>998</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1906</v>
       </c>
@@ -4758,7 +4757,7 @@
       <c r="D38" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>1097</v>
       </c>
       <c r="F38" t="s">
@@ -4770,11 +4769,11 @@
       <c r="H38" t="s">
         <v>998</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1906</v>
       </c>
@@ -4784,7 +4783,7 @@
       <c r="D39" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>1097</v>
       </c>
       <c r="F39" t="s">
@@ -4794,13 +4793,13 @@
         <v>781</v>
       </c>
       <c r="H39" t="s">
-        <v>1111</v>
+        <v>1128</v>
       </c>
       <c r="I39" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1906</v>
       </c>
@@ -4810,7 +4809,7 @@
       <c r="D40" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>1097</v>
       </c>
       <c r="F40" t="s">
@@ -4822,11 +4821,11 @@
       <c r="H40" t="s">
         <v>999</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1906</v>
       </c>
@@ -4836,7 +4835,7 @@
       <c r="D41" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>1097</v>
       </c>
       <c r="F41" t="s">
@@ -4848,11 +4847,11 @@
       <c r="H41" t="s">
         <v>1000</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1906</v>
       </c>
@@ -4862,7 +4861,7 @@
       <c r="D42" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>1097</v>
       </c>
       <c r="F42" t="s">
@@ -4874,11 +4873,11 @@
       <c r="H42" t="s">
         <v>1001</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1906</v>
       </c>
@@ -4888,7 +4887,7 @@
       <c r="D43" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>1097</v>
       </c>
       <c r="F43" t="s">
@@ -4900,11 +4899,11 @@
       <c r="H43" t="s">
         <v>995</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1906</v>
       </c>
@@ -4914,7 +4913,7 @@
       <c r="D44" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>1097</v>
       </c>
       <c r="F44" t="s">
@@ -4926,11 +4925,11 @@
       <c r="H44" t="s">
         <v>995</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1906</v>
       </c>
@@ -4940,7 +4939,7 @@
       <c r="D45" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>1097</v>
       </c>
       <c r="F45" t="s">
@@ -4952,11 +4951,11 @@
       <c r="H45" t="s">
         <v>1001</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1906</v>
       </c>
@@ -4966,7 +4965,7 @@
       <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>1097</v>
       </c>
       <c r="F46" t="s">
@@ -4978,11 +4977,11 @@
       <c r="H46" t="s">
         <v>1001</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1906</v>
       </c>
@@ -4992,7 +4991,7 @@
       <c r="D47" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>1097</v>
       </c>
       <c r="F47" t="s">
@@ -5011,7 +5010,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1906</v>
       </c>
@@ -5021,7 +5020,7 @@
       <c r="D48" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>1097</v>
       </c>
       <c r="F48" t="s">
@@ -5033,11 +5032,11 @@
       <c r="H48" t="s">
         <v>1002</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1906</v>
       </c>
@@ -5047,7 +5046,7 @@
       <c r="D49" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>1097</v>
       </c>
       <c r="F49" t="s">
@@ -5059,11 +5058,11 @@
       <c r="H49" t="s">
         <v>1002</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1906</v>
       </c>
@@ -5073,7 +5072,7 @@
       <c r="D50" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>1097</v>
       </c>
       <c r="F50" t="s">
@@ -5082,17 +5081,17 @@
       <c r="G50" t="s">
         <v>792</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>1110</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>1102</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1906</v>
       </c>
@@ -5102,7 +5101,7 @@
       <c r="D51" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>1097</v>
       </c>
       <c r="F51" t="s">
@@ -5114,11 +5113,11 @@
       <c r="H51" t="s">
         <v>1003</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1906</v>
       </c>
@@ -5128,7 +5127,7 @@
       <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>1097</v>
       </c>
       <c r="F52" t="s">
@@ -5140,11 +5139,11 @@
       <c r="H52" t="s">
         <v>1003</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1906</v>
       </c>
@@ -5154,7 +5153,7 @@
       <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>1097</v>
       </c>
       <c r="F53" t="s">
@@ -5166,11 +5165,11 @@
       <c r="H53" t="s">
         <v>1004</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1906</v>
       </c>
@@ -5180,7 +5179,7 @@
       <c r="D54" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>1097</v>
       </c>
       <c r="F54" t="s">
@@ -5192,11 +5191,11 @@
       <c r="H54" t="s">
         <v>1004</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1906</v>
       </c>
@@ -5206,7 +5205,7 @@
       <c r="D55" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>1097</v>
       </c>
       <c r="F55" t="s">
@@ -5215,14 +5214,14 @@
       <c r="G55" t="s">
         <v>797</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1906</v>
       </c>
@@ -5232,7 +5231,7 @@
       <c r="D56" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>1097</v>
       </c>
       <c r="F56" t="s">
@@ -5241,14 +5240,14 @@
       <c r="G56" t="s">
         <v>798</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1906</v>
       </c>
@@ -5258,7 +5257,7 @@
       <c r="D57" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>1097</v>
       </c>
       <c r="F57" t="s">
@@ -5267,14 +5266,14 @@
       <c r="G57" t="s">
         <v>799</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1906</v>
       </c>
@@ -5284,7 +5283,7 @@
       <c r="D58" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>1097</v>
       </c>
       <c r="F58" t="s">
@@ -5293,14 +5292,14 @@
       <c r="G58" t="s">
         <v>800</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1906</v>
       </c>
@@ -5310,7 +5309,7 @@
       <c r="D59" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>1097</v>
       </c>
       <c r="F59" t="s">
@@ -5326,7 +5325,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1906</v>
       </c>
@@ -5336,7 +5335,7 @@
       <c r="D60" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>1097</v>
       </c>
       <c r="F60" t="s">
@@ -5345,14 +5344,14 @@
       <c r="G60" t="s">
         <v>802</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>1109</v>
       </c>
       <c r="I60" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1906</v>
       </c>
@@ -5362,7 +5361,7 @@
       <c r="D61" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>1097</v>
       </c>
       <c r="F61" t="s">
@@ -5371,14 +5370,14 @@
       <c r="G61" t="s">
         <v>803</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" t="s">
         <v>1109</v>
       </c>
       <c r="I61" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1906</v>
       </c>
@@ -5388,7 +5387,7 @@
       <c r="D62" t="s">
         <v>63</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>1097</v>
       </c>
       <c r="F62" t="s">
@@ -5400,11 +5399,11 @@
       <c r="H62" t="s">
         <v>996</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1906</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="D63" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>1097</v>
       </c>
       <c r="F63" t="s">
@@ -5426,11 +5425,11 @@
       <c r="H63" t="s">
         <v>997</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1906</v>
       </c>
@@ -5440,7 +5439,7 @@
       <c r="D64" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>1097</v>
       </c>
       <c r="F64" t="s">
@@ -5452,11 +5451,11 @@
       <c r="H64" t="s">
         <v>998</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1906</v>
       </c>
@@ -5466,7 +5465,7 @@
       <c r="D65" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>1097</v>
       </c>
       <c r="F65" t="s">
@@ -5478,11 +5477,11 @@
       <c r="H65" t="s">
         <v>998</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1906</v>
       </c>
@@ -5492,7 +5491,7 @@
       <c r="D66" t="s">
         <v>67</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>1097</v>
       </c>
       <c r="F66" t="s">
@@ -5504,11 +5503,11 @@
       <c r="H66" t="s">
         <v>1001</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1906</v>
       </c>
@@ -5518,7 +5517,7 @@
       <c r="D67" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>1097</v>
       </c>
       <c r="F67" t="s">
@@ -5527,17 +5526,17 @@
       <c r="G67" t="s">
         <v>808</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>1110</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>1102</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1906</v>
       </c>
@@ -5547,7 +5546,7 @@
       <c r="D68" t="s">
         <v>69</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>1097</v>
       </c>
       <c r="F68" t="s">
@@ -5559,11 +5558,11 @@
       <c r="H68" t="s">
         <v>1002</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1906</v>
       </c>
@@ -5573,7 +5572,7 @@
       <c r="D69" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>1097</v>
       </c>
       <c r="F69" t="s">
@@ -5585,11 +5584,11 @@
       <c r="H69" t="s">
         <v>1003</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1906</v>
       </c>
@@ -5599,7 +5598,7 @@
       <c r="D70" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>1097</v>
       </c>
       <c r="F70" t="s">
@@ -5608,14 +5607,14 @@
       <c r="G70" t="s">
         <v>811</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1906</v>
       </c>
@@ -5625,7 +5624,7 @@
       <c r="D71" t="s">
         <v>72</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>1097</v>
       </c>
       <c r="F71" t="s">
@@ -5634,14 +5633,14 @@
       <c r="G71" t="s">
         <v>812</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1906</v>
       </c>
@@ -5651,7 +5650,7 @@
       <c r="D72" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>1097</v>
       </c>
       <c r="F72" t="s">
@@ -5660,14 +5659,14 @@
       <c r="G72" t="s">
         <v>813</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1906</v>
       </c>
@@ -5677,7 +5676,7 @@
       <c r="D73" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>1097</v>
       </c>
       <c r="F73" t="s">
@@ -5687,7 +5686,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1906</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1906</v>
       </c>
@@ -5723,7 +5722,7 @@
       <c r="D75" t="s">
         <v>76</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>1098</v>
       </c>
       <c r="F75" t="s">
@@ -5735,7 +5734,7 @@
       <c r="H75" t="s">
         <v>1005</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>1104</v>
       </c>
       <c r="K75" t="s">
@@ -5745,7 +5744,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1906</v>
       </c>
@@ -5755,7 +5754,7 @@
       <c r="D76" t="s">
         <v>77</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>1098</v>
       </c>
       <c r="F76" t="s">
@@ -5767,11 +5766,11 @@
       <c r="H76" t="s">
         <v>1005</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1906</v>
       </c>
@@ -5781,7 +5780,7 @@
       <c r="D77" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>1098</v>
       </c>
       <c r="F77" t="s">
@@ -5793,17 +5792,17 @@
       <c r="H77" t="s">
         <v>1005</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" t="s">
         <v>1104</v>
       </c>
       <c r="K77" t="s">
         <v>1006</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1906</v>
       </c>
@@ -5813,7 +5812,7 @@
       <c r="D78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>1098</v>
       </c>
       <c r="F78" t="s">
@@ -5825,11 +5824,11 @@
       <c r="H78" t="s">
         <v>1005</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1906</v>
       </c>
@@ -5839,7 +5838,7 @@
       <c r="D79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>1098</v>
       </c>
       <c r="F79" t="s">
@@ -5851,11 +5850,11 @@
       <c r="H79" t="s">
         <v>1006</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1906</v>
       </c>
@@ -5865,7 +5864,7 @@
       <c r="D80" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>1098</v>
       </c>
       <c r="F80" t="s">
@@ -5877,11 +5876,11 @@
       <c r="H80" t="s">
         <v>1006</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1906</v>
       </c>
@@ -5891,7 +5890,7 @@
       <c r="D81" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>1098</v>
       </c>
       <c r="F81" t="s">
@@ -5903,11 +5902,11 @@
       <c r="H81" t="s">
         <v>1006</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1906</v>
       </c>
@@ -5917,7 +5916,7 @@
       <c r="D82" t="s">
         <v>83</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>1098</v>
       </c>
       <c r="F82" t="s">
@@ -5929,11 +5928,11 @@
       <c r="H82" t="s">
         <v>1083</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1906</v>
       </c>
@@ -5943,7 +5942,7 @@
       <c r="D83" t="s">
         <v>84</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>1098</v>
       </c>
       <c r="F83" t="s">
@@ -5955,11 +5954,11 @@
       <c r="H83" t="s">
         <v>1083</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1906</v>
       </c>
@@ -5969,7 +5968,7 @@
       <c r="D84" t="s">
         <v>85</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>1098</v>
       </c>
       <c r="F84" t="s">
@@ -5981,11 +5980,11 @@
       <c r="H84" t="s">
         <v>1083</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1906</v>
       </c>
@@ -5995,7 +5994,7 @@
       <c r="D85" t="s">
         <v>86</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>1098</v>
       </c>
       <c r="F85" t="s">
@@ -6011,7 +6010,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1906</v>
       </c>
@@ -6021,7 +6020,7 @@
       <c r="D86" t="s">
         <v>87</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>1098</v>
       </c>
       <c r="F86" t="s">
@@ -6037,7 +6036,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1906</v>
       </c>
@@ -6047,7 +6046,7 @@
       <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>1098</v>
       </c>
       <c r="F87" t="s">
@@ -6059,11 +6058,11 @@
       <c r="H87" t="s">
         <v>1008</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1906</v>
       </c>
@@ -6073,7 +6072,7 @@
       <c r="D88" t="s">
         <v>89</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>1098</v>
       </c>
       <c r="F88" t="s">
@@ -6085,11 +6084,11 @@
       <c r="H88" t="s">
         <v>1008</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1906</v>
       </c>
@@ -6099,7 +6098,7 @@
       <c r="D89" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>1098</v>
       </c>
       <c r="F89" t="s">
@@ -6111,11 +6110,11 @@
       <c r="H89" t="s">
         <v>1008</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1906</v>
       </c>
@@ -6125,7 +6124,7 @@
       <c r="D90" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>1098</v>
       </c>
       <c r="F90" t="s">
@@ -6141,7 +6140,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1906</v>
       </c>
@@ -6151,7 +6150,7 @@
       <c r="D91" t="s">
         <v>92</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>1098</v>
       </c>
       <c r="F91" t="s">
@@ -6163,11 +6162,11 @@
       <c r="H91" t="s">
         <v>1009</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1906</v>
       </c>
@@ -6177,7 +6176,7 @@
       <c r="D92" t="s">
         <v>93</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>1098</v>
       </c>
       <c r="F92" t="s">
@@ -6189,11 +6188,11 @@
       <c r="H92" t="s">
         <v>1009</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -6203,7 +6202,7 @@
       <c r="D93" t="s">
         <v>94</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>1098</v>
       </c>
       <c r="F93" t="s">
@@ -6219,7 +6218,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1906</v>
       </c>
@@ -6229,7 +6228,7 @@
       <c r="D94" t="s">
         <v>95</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>1098</v>
       </c>
       <c r="F94" t="s">
@@ -6239,13 +6238,13 @@
         <v>760</v>
       </c>
       <c r="H94" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I94" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I94" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1906</v>
       </c>
@@ -6255,7 +6254,7 @@
       <c r="D95" t="s">
         <v>96</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>1098</v>
       </c>
       <c r="F95" t="s">
@@ -6265,13 +6264,13 @@
         <v>831</v>
       </c>
       <c r="H95" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I95" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1906</v>
       </c>
@@ -6281,7 +6280,7 @@
       <c r="D96" t="s">
         <v>97</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>1098</v>
       </c>
       <c r="F96" t="s">
@@ -6291,13 +6290,13 @@
         <v>832</v>
       </c>
       <c r="H96" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I96" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1906</v>
       </c>
@@ -6307,7 +6306,7 @@
       <c r="D97" t="s">
         <v>98</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>1098</v>
       </c>
       <c r="F97" t="s">
@@ -6319,11 +6318,11 @@
       <c r="H97" t="s">
         <v>1091</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1906</v>
       </c>
@@ -6333,7 +6332,7 @@
       <c r="D98" t="s">
         <v>99</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>1098</v>
       </c>
       <c r="F98" t="s">
@@ -6345,11 +6344,11 @@
       <c r="H98" t="s">
         <v>1091</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1906</v>
       </c>
@@ -6359,7 +6358,7 @@
       <c r="D99" t="s">
         <v>100</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>1098</v>
       </c>
       <c r="F99" t="s">
@@ -6371,11 +6370,11 @@
       <c r="H99" t="s">
         <v>1091</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1906</v>
       </c>
@@ -6385,7 +6384,7 @@
       <c r="D100" t="s">
         <v>101</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>1098</v>
       </c>
       <c r="F100" t="s">
@@ -6397,11 +6396,11 @@
       <c r="H100" t="s">
         <v>1091</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1906</v>
       </c>
@@ -6411,7 +6410,7 @@
       <c r="D101" t="s">
         <v>102</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>1098</v>
       </c>
       <c r="F101" t="s">
@@ -6420,17 +6419,17 @@
       <c r="H101" t="s">
         <v>1091</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" t="s">
         <v>1102</v>
       </c>
       <c r="K101" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L101" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1906</v>
       </c>
@@ -6440,7 +6439,7 @@
       <c r="D102" t="s">
         <v>103</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" t="s">
         <v>1098</v>
       </c>
       <c r="F102" t="s">
@@ -6450,13 +6449,13 @@
         <v>835</v>
       </c>
       <c r="H102" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="I102" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1906</v>
       </c>
@@ -6466,7 +6465,7 @@
       <c r="D103" t="s">
         <v>104</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
         <v>1098</v>
       </c>
       <c r="F103" t="s">
@@ -6475,14 +6474,14 @@
       <c r="G103" t="s">
         <v>827</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1906</v>
       </c>
@@ -6492,7 +6491,7 @@
       <c r="D104" t="s">
         <v>105</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
         <v>1098</v>
       </c>
       <c r="F104" t="s">
@@ -6501,14 +6500,14 @@
       <c r="G104" t="s">
         <v>836</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1906</v>
       </c>
@@ -6518,7 +6517,7 @@
       <c r="D105" t="s">
         <v>106</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
         <v>1098</v>
       </c>
       <c r="F105" t="s">
@@ -6527,14 +6526,14 @@
       <c r="G105" t="s">
         <v>837</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1906</v>
       </c>
@@ -6544,7 +6543,7 @@
       <c r="D106" t="s">
         <v>107</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>1098</v>
       </c>
       <c r="F106" t="s">
@@ -6553,14 +6552,14 @@
       <c r="G106" t="s">
         <v>819</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1906</v>
       </c>
@@ -6570,7 +6569,7 @@
       <c r="D107" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" t="s">
         <v>1098</v>
       </c>
       <c r="F107" t="s">
@@ -6582,11 +6581,11 @@
       <c r="H107" t="s">
         <v>1084</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I107" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1906</v>
       </c>
@@ -6596,7 +6595,7 @@
       <c r="D108" t="s">
         <v>109</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" t="s">
         <v>1098</v>
       </c>
       <c r="F108" t="s">
@@ -6608,11 +6607,11 @@
       <c r="H108" t="s">
         <v>1084</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1906</v>
       </c>
@@ -6622,7 +6621,7 @@
       <c r="D109" t="s">
         <v>110</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" t="s">
         <v>1098</v>
       </c>
       <c r="F109" t="s">
@@ -6638,7 +6637,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1906</v>
       </c>
@@ -6648,7 +6647,7 @@
       <c r="D110" t="s">
         <v>111</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" t="s">
         <v>1098</v>
       </c>
       <c r="F110" t="s">
@@ -6660,11 +6659,11 @@
       <c r="H110" t="s">
         <v>1012</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1906</v>
       </c>
@@ -6674,7 +6673,7 @@
       <c r="D111" t="s">
         <v>112</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" t="s">
         <v>1098</v>
       </c>
       <c r="F111" t="s">
@@ -6686,11 +6685,11 @@
       <c r="H111" t="s">
         <v>1012</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1906</v>
       </c>
@@ -6700,7 +6699,7 @@
       <c r="D112" t="s">
         <v>113</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" t="s">
         <v>1098</v>
       </c>
       <c r="F112" t="s">
@@ -6712,11 +6711,11 @@
       <c r="H112" t="s">
         <v>1012</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1906</v>
       </c>
@@ -6726,7 +6725,7 @@
       <c r="D113" t="s">
         <v>114</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="E113" t="s">
         <v>1098</v>
       </c>
       <c r="F113" t="s">
@@ -6738,11 +6737,11 @@
       <c r="H113" t="s">
         <v>1012</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1906</v>
       </c>
@@ -6752,7 +6751,7 @@
       <c r="D114" t="s">
         <v>115</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E114" t="s">
         <v>1098</v>
       </c>
       <c r="F114" t="s">
@@ -6768,7 +6767,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1906</v>
       </c>
@@ -6778,7 +6777,7 @@
       <c r="D115" t="s">
         <v>116</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" t="s">
         <v>1098</v>
       </c>
       <c r="F115" t="s">
@@ -6788,13 +6787,13 @@
         <v>751</v>
       </c>
       <c r="H115" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I115" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I115" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1906</v>
       </c>
@@ -6804,7 +6803,7 @@
       <c r="D116" t="s">
         <v>117</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" t="s">
         <v>1098</v>
       </c>
       <c r="F116" t="s">
@@ -6814,13 +6813,13 @@
         <v>843</v>
       </c>
       <c r="H116" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="I116" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1906</v>
       </c>
@@ -6830,7 +6829,7 @@
       <c r="D117" t="s">
         <v>118</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" t="s">
         <v>1098</v>
       </c>
       <c r="F117" t="s">
@@ -6842,11 +6841,11 @@
       <c r="H117" t="s">
         <v>1092</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1906</v>
       </c>
@@ -6856,7 +6855,7 @@
       <c r="D118" t="s">
         <v>119</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" t="s">
         <v>1098</v>
       </c>
       <c r="F118" t="s">
@@ -6872,7 +6871,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1906</v>
       </c>
@@ -6882,7 +6881,7 @@
       <c r="D119" t="s">
         <v>120</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" t="s">
         <v>1098</v>
       </c>
       <c r="F119" t="s">
@@ -6894,11 +6893,11 @@
       <c r="H119" t="s">
         <v>1015</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I119" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1906</v>
       </c>
@@ -6908,7 +6907,7 @@
       <c r="D120" t="s">
         <v>121</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" t="s">
         <v>1098</v>
       </c>
       <c r="F120" t="s">
@@ -6920,11 +6919,11 @@
       <c r="H120" t="s">
         <v>1016</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I120" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1906</v>
       </c>
@@ -6934,7 +6933,7 @@
       <c r="D121" t="s">
         <v>122</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" t="s">
         <v>1098</v>
       </c>
       <c r="F121" t="s">
@@ -6946,11 +6945,11 @@
       <c r="H121" t="s">
         <v>1016</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I121" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1906</v>
       </c>
@@ -6960,7 +6959,7 @@
       <c r="D122" t="s">
         <v>123</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" t="s">
         <v>1098</v>
       </c>
       <c r="F122" t="s">
@@ -6972,11 +6971,11 @@
       <c r="H122" t="s">
         <v>1083</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I122" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1906</v>
       </c>
@@ -6986,7 +6985,7 @@
       <c r="D123" t="s">
         <v>124</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E123" t="s">
         <v>1098</v>
       </c>
       <c r="F123" t="s">
@@ -6998,11 +6997,11 @@
       <c r="H123" t="s">
         <v>1017</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I123" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1906</v>
       </c>
@@ -7012,7 +7011,7 @@
       <c r="D124" t="s">
         <v>125</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" t="s">
         <v>1098</v>
       </c>
       <c r="F124" t="s">
@@ -7024,11 +7023,11 @@
       <c r="H124" t="s">
         <v>1017</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I124" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1906</v>
       </c>
@@ -7038,7 +7037,7 @@
       <c r="D125" t="s">
         <v>126</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" t="s">
         <v>1098</v>
       </c>
       <c r="F125" t="s">
@@ -7050,11 +7049,11 @@
       <c r="H125" t="s">
         <v>1017</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I125" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1906</v>
       </c>
@@ -7064,7 +7063,7 @@
       <c r="D126" t="s">
         <v>127</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E126" t="s">
         <v>1098</v>
       </c>
       <c r="F126" t="s">
@@ -7074,13 +7073,13 @@
         <v>760</v>
       </c>
       <c r="H126" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I126" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1906</v>
       </c>
@@ -7090,7 +7089,7 @@
       <c r="D127" t="s">
         <v>128</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E127" t="s">
         <v>1098</v>
       </c>
       <c r="F127" t="s">
@@ -7102,11 +7101,11 @@
       <c r="H127" t="s">
         <v>1018</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I127" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1906</v>
       </c>
@@ -7116,7 +7115,7 @@
       <c r="D128" t="s">
         <v>129</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128" t="s">
         <v>1098</v>
       </c>
       <c r="F128" t="s">
@@ -7128,11 +7127,11 @@
       <c r="H128" t="s">
         <v>1018</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I128" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1906</v>
       </c>
@@ -7142,7 +7141,7 @@
       <c r="D129" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" t="s">
         <v>1098</v>
       </c>
       <c r="F129" t="s">
@@ -7158,7 +7157,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1906</v>
       </c>
@@ -7168,7 +7167,7 @@
       <c r="D130" t="s">
         <v>131</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E130" t="s">
         <v>1098</v>
       </c>
       <c r="F130" t="s">
@@ -7180,11 +7179,11 @@
       <c r="H130" t="s">
         <v>1019</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I130" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1906</v>
       </c>
@@ -7194,7 +7193,7 @@
       <c r="D131" t="s">
         <v>132</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="E131" t="s">
         <v>1098</v>
       </c>
       <c r="F131" t="s">
@@ -7206,11 +7205,11 @@
       <c r="H131" t="s">
         <v>1020</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1906</v>
       </c>
@@ -7220,7 +7219,7 @@
       <c r="D132" t="s">
         <v>133</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E132" t="s">
         <v>1098</v>
       </c>
       <c r="F132" t="s">
@@ -7236,7 +7235,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1906</v>
       </c>
@@ -7246,7 +7245,7 @@
       <c r="D133" t="s">
         <v>134</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E133" t="s">
         <v>1098</v>
       </c>
       <c r="F133" t="s">
@@ -7258,11 +7257,11 @@
       <c r="H133" t="s">
         <v>1021</v>
       </c>
-      <c r="I133" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1906</v>
       </c>
@@ -7272,7 +7271,7 @@
       <c r="D134" t="s">
         <v>135</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E134" t="s">
         <v>1098</v>
       </c>
       <c r="F134" t="s">
@@ -7284,11 +7283,11 @@
       <c r="H134" t="s">
         <v>1021</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1906</v>
       </c>
@@ -7298,7 +7297,7 @@
       <c r="D135" t="s">
         <v>136</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="E135" t="s">
         <v>1098</v>
       </c>
       <c r="F135" t="s">
@@ -7310,11 +7309,11 @@
       <c r="H135" t="s">
         <v>1022</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1906</v>
       </c>
@@ -7324,7 +7323,7 @@
       <c r="D136" t="s">
         <v>137</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" t="s">
         <v>1098</v>
       </c>
       <c r="F136" t="s">
@@ -7336,11 +7335,11 @@
       <c r="H136" t="s">
         <v>1022</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1906</v>
       </c>
@@ -7350,7 +7349,7 @@
       <c r="D137" t="s">
         <v>138</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" t="s">
         <v>1098</v>
       </c>
       <c r="F137" t="s">
@@ -7362,11 +7361,11 @@
       <c r="H137" t="s">
         <v>1022</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1906</v>
       </c>
@@ -7376,7 +7375,7 @@
       <c r="D138" t="s">
         <v>139</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" t="s">
         <v>1098</v>
       </c>
       <c r="F138" t="s">
@@ -7392,7 +7391,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1906</v>
       </c>
@@ -7402,7 +7401,7 @@
       <c r="D139" t="s">
         <v>140</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" t="s">
         <v>1098</v>
       </c>
       <c r="F139" t="s">
@@ -7414,11 +7413,11 @@
       <c r="H139" t="s">
         <v>1023</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I139" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1906</v>
       </c>
@@ -7428,7 +7427,7 @@
       <c r="D140" t="s">
         <v>141</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" t="s">
         <v>1098</v>
       </c>
       <c r="F140" t="s">
@@ -7444,7 +7443,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1906</v>
       </c>
@@ -7454,7 +7453,7 @@
       <c r="D141" t="s">
         <v>142</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E141" t="s">
         <v>1098</v>
       </c>
       <c r="F141" t="s">
@@ -7466,11 +7465,11 @@
       <c r="H141" t="s">
         <v>1025</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I141" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1906</v>
       </c>
@@ -7480,7 +7479,7 @@
       <c r="D142" t="s">
         <v>143</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" t="s">
         <v>1098</v>
       </c>
       <c r="F142" t="s">
@@ -7492,11 +7491,11 @@
       <c r="H142" t="s">
         <v>1026</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1906</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="D143" t="s">
         <v>144</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" t="s">
         <v>1098</v>
       </c>
       <c r="F143" t="s">
@@ -7518,11 +7517,11 @@
       <c r="H143" t="s">
         <v>1026</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1906</v>
       </c>
@@ -7532,7 +7531,7 @@
       <c r="D144" t="s">
         <v>145</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" t="s">
         <v>1098</v>
       </c>
       <c r="F144" t="s">
@@ -7542,13 +7541,13 @@
         <v>858</v>
       </c>
       <c r="H144" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I144" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I144" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1906</v>
       </c>
@@ -7558,7 +7557,7 @@
       <c r="D145" t="s">
         <v>146</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E145" t="s">
         <v>1098</v>
       </c>
       <c r="F145" t="s">
@@ -7568,13 +7567,13 @@
         <v>760</v>
       </c>
       <c r="H145" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I145" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I145" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1906</v>
       </c>
@@ -7584,7 +7583,7 @@
       <c r="D146" t="s">
         <v>147</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" t="s">
         <v>1098</v>
       </c>
       <c r="F146" t="s">
@@ -7593,14 +7592,14 @@
       <c r="G146" t="s">
         <v>859</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>1118</v>
+      <c r="H146" t="s">
+        <v>1117</v>
       </c>
       <c r="I146" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1906</v>
       </c>
@@ -7610,7 +7609,7 @@
       <c r="D147" t="s">
         <v>148</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" t="s">
         <v>1098</v>
       </c>
       <c r="F147" t="s">
@@ -7619,14 +7618,14 @@
       <c r="G147" t="s">
         <v>760</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I147" s="1" t="s">
+      <c r="H147" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I147" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1906</v>
       </c>
@@ -7636,7 +7635,7 @@
       <c r="D148" t="s">
         <v>149</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" t="s">
         <v>1098</v>
       </c>
       <c r="F148" t="s">
@@ -7652,7 +7651,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1906</v>
       </c>
@@ -7662,7 +7661,7 @@
       <c r="D149" t="s">
         <v>150</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
         <v>1098</v>
       </c>
       <c r="F149" t="s">
@@ -7674,11 +7673,11 @@
       <c r="H149" t="s">
         <v>1027</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1906</v>
       </c>
@@ -7688,7 +7687,7 @@
       <c r="D150" t="s">
         <v>151</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" t="s">
         <v>1098</v>
       </c>
       <c r="F150" t="s">
@@ -7700,11 +7699,11 @@
       <c r="H150" t="s">
         <v>1027</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1906</v>
       </c>
@@ -7714,7 +7713,7 @@
       <c r="D151" t="s">
         <v>152</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" t="s">
         <v>1098</v>
       </c>
       <c r="F151" t="s">
@@ -7730,7 +7729,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1906</v>
       </c>
@@ -7740,7 +7739,7 @@
       <c r="D152" t="s">
         <v>153</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" t="s">
         <v>1098</v>
       </c>
       <c r="F152" t="s">
@@ -7752,11 +7751,11 @@
       <c r="H152" t="s">
         <v>1093</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I152" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1906</v>
       </c>
@@ -7766,7 +7765,7 @@
       <c r="D153" t="s">
         <v>154</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
         <v>1098</v>
       </c>
       <c r="F153" t="s">
@@ -7778,11 +7777,11 @@
       <c r="H153" t="s">
         <v>1094</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1906</v>
       </c>
@@ -7792,7 +7791,7 @@
       <c r="D154" t="s">
         <v>155</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" t="s">
         <v>1098</v>
       </c>
       <c r="F154" t="s">
@@ -7804,11 +7803,11 @@
       <c r="H154" t="s">
         <v>1028</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1906</v>
       </c>
@@ -7818,7 +7817,7 @@
       <c r="D155" t="s">
         <v>156</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" t="s">
         <v>1098</v>
       </c>
       <c r="F155" t="s">
@@ -7834,7 +7833,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1906</v>
       </c>
@@ -7844,7 +7843,7 @@
       <c r="D156" t="s">
         <v>157</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" t="s">
         <v>1098</v>
       </c>
       <c r="F156" t="s">
@@ -7856,11 +7855,11 @@
       <c r="H156" t="s">
         <v>1029</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I156" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1906</v>
       </c>
@@ -7870,7 +7869,7 @@
       <c r="D157" t="s">
         <v>158</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
         <v>1098</v>
       </c>
       <c r="F157" t="s">
@@ -7886,7 +7885,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1906</v>
       </c>
@@ -7896,7 +7895,7 @@
       <c r="D158" t="s">
         <v>159</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" t="s">
         <v>1098</v>
       </c>
       <c r="F158" t="s">
@@ -7912,7 +7911,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1906</v>
       </c>
@@ -7922,7 +7921,7 @@
       <c r="D159" t="s">
         <v>160</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" t="s">
         <v>1098</v>
       </c>
       <c r="F159" t="s">
@@ -7938,7 +7937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1906</v>
       </c>
@@ -7948,7 +7947,7 @@
       <c r="D160" t="s">
         <v>161</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" t="s">
         <v>1098</v>
       </c>
       <c r="F160" t="s">
@@ -7960,11 +7959,11 @@
       <c r="H160" t="s">
         <v>1031</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I160" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1906</v>
       </c>
@@ -7974,7 +7973,7 @@
       <c r="D161" t="s">
         <v>162</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" t="s">
         <v>1098</v>
       </c>
       <c r="F161" t="s">
@@ -7990,7 +7989,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1906</v>
       </c>
@@ -8000,7 +7999,7 @@
       <c r="D162" t="s">
         <v>163</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" t="s">
         <v>1098</v>
       </c>
       <c r="F162" t="s">
@@ -8010,13 +8009,13 @@
         <v>760</v>
       </c>
       <c r="H162" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I162" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I162" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1906</v>
       </c>
@@ -8026,7 +8025,7 @@
       <c r="D163" t="s">
         <v>164</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" t="s">
         <v>1098</v>
       </c>
       <c r="F163" t="s">
@@ -8035,14 +8034,14 @@
       <c r="G163" t="s">
         <v>751</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I163" s="1" t="s">
+      <c r="H163" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I163" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1906</v>
       </c>
@@ -8052,7 +8051,7 @@
       <c r="D164" t="s">
         <v>165</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" t="s">
         <v>1098</v>
       </c>
       <c r="F164" t="s">
@@ -8064,11 +8063,11 @@
       <c r="H164" t="s">
         <v>1033</v>
       </c>
-      <c r="I164" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1906</v>
       </c>
@@ -8078,7 +8077,7 @@
       <c r="D165" t="s">
         <v>166</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" t="s">
         <v>1098</v>
       </c>
       <c r="F165" t="s">
@@ -8090,11 +8089,11 @@
       <c r="H165" t="s">
         <v>1033</v>
       </c>
-      <c r="I165" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1906</v>
       </c>
@@ -8104,7 +8103,7 @@
       <c r="D166" t="s">
         <v>167</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" t="s">
         <v>1098</v>
       </c>
       <c r="F166" t="s">
@@ -8116,11 +8115,11 @@
       <c r="H166" t="s">
         <v>1034</v>
       </c>
-      <c r="I166" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1906</v>
       </c>
@@ -8130,7 +8129,7 @@
       <c r="D167" t="s">
         <v>168</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" t="s">
         <v>1098</v>
       </c>
       <c r="F167" t="s">
@@ -8142,11 +8141,11 @@
       <c r="H167" t="s">
         <v>1034</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1906</v>
       </c>
@@ -8156,7 +8155,7 @@
       <c r="D168" t="s">
         <v>169</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" t="s">
         <v>1098</v>
       </c>
       <c r="F168" t="s">
@@ -8168,11 +8167,11 @@
       <c r="H168" t="s">
         <v>1034</v>
       </c>
-      <c r="I168" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1906</v>
       </c>
@@ -8182,7 +8181,7 @@
       <c r="D169" t="s">
         <v>170</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" t="s">
         <v>1098</v>
       </c>
       <c r="F169" t="s">
@@ -8194,11 +8193,11 @@
       <c r="H169" t="s">
         <v>1034</v>
       </c>
-      <c r="I169" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1906</v>
       </c>
@@ -8208,7 +8207,7 @@
       <c r="D170" t="s">
         <v>171</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" t="s">
         <v>1098</v>
       </c>
       <c r="F170" t="s">
@@ -8218,13 +8217,13 @@
         <v>873</v>
       </c>
       <c r="H170" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1906</v>
       </c>
@@ -8234,7 +8233,7 @@
       <c r="D171" t="s">
         <v>172</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" t="s">
         <v>1098</v>
       </c>
       <c r="F171" t="s">
@@ -8243,14 +8242,14 @@
       <c r="G171" t="s">
         <v>874</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1906</v>
       </c>
@@ -8272,11 +8271,11 @@
       <c r="H172" t="s">
         <v>1030</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="I172" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1906</v>
       </c>
@@ -8286,7 +8285,7 @@
       <c r="D173" t="s">
         <v>174</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" t="s">
         <v>1099</v>
       </c>
       <c r="F173" t="s">
@@ -8298,11 +8297,11 @@
       <c r="H173" t="s">
         <v>1030</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="I173" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1906</v>
       </c>
@@ -8312,7 +8311,7 @@
       <c r="D174" t="s">
         <v>175</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" t="s">
         <v>1099</v>
       </c>
       <c r="F174" t="s">
@@ -8324,11 +8323,11 @@
       <c r="H174" t="s">
         <v>1030</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I174" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1906</v>
       </c>
@@ -8338,7 +8337,7 @@
       <c r="D175" t="s">
         <v>176</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" t="s">
         <v>1099</v>
       </c>
       <c r="F175" t="s">
@@ -8348,7 +8347,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1906</v>
       </c>
@@ -8358,7 +8357,7 @@
       <c r="D176" t="s">
         <v>177</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" t="s">
         <v>1099</v>
       </c>
       <c r="F176" t="s">
@@ -8368,7 +8367,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1906</v>
       </c>
@@ -8378,7 +8377,7 @@
       <c r="D177" t="s">
         <v>178</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" t="s">
         <v>1099</v>
       </c>
       <c r="F177" t="s">
@@ -8388,7 +8387,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1906</v>
       </c>
@@ -8398,7 +8397,7 @@
       <c r="D178" t="s">
         <v>179</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" t="s">
         <v>1099</v>
       </c>
       <c r="F178" t="s">
@@ -8417,7 +8416,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1906</v>
       </c>
@@ -8427,7 +8426,7 @@
       <c r="D179" t="s">
         <v>180</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" t="s">
         <v>1099</v>
       </c>
       <c r="F179" t="s">
@@ -8439,14 +8438,14 @@
       <c r="H179" t="s">
         <v>1086</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J179" s="1" t="s">
+      <c r="I179" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J179" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1906</v>
       </c>
@@ -8456,7 +8455,7 @@
       <c r="D180" t="s">
         <v>181</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
         <v>1099</v>
       </c>
       <c r="F180" t="s">
@@ -8468,14 +8467,14 @@
       <c r="H180" t="s">
         <v>1086</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J180" s="1" t="s">
+      <c r="I180" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J180" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1906</v>
       </c>
@@ -8485,7 +8484,7 @@
       <c r="D181" t="s">
         <v>182</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" t="s">
         <v>1099</v>
       </c>
       <c r="F181" t="s">
@@ -8497,14 +8496,14 @@
       <c r="H181" t="s">
         <v>1086</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J181" s="1" t="s">
+      <c r="I181" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J181" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1906</v>
       </c>
@@ -8514,7 +8513,7 @@
       <c r="D182" t="s">
         <v>183</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" t="s">
         <v>1099</v>
       </c>
       <c r="F182" t="s">
@@ -8526,14 +8525,14 @@
       <c r="H182" t="s">
         <v>1086</v>
       </c>
-      <c r="I182" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J182" s="1" t="s">
+      <c r="I182" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J182" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1906</v>
       </c>
@@ -8543,7 +8542,7 @@
       <c r="D183" t="s">
         <v>184</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" t="s">
         <v>1099</v>
       </c>
       <c r="F183" t="s">
@@ -8559,7 +8558,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1906</v>
       </c>
@@ -8569,7 +8568,7 @@
       <c r="D184" t="s">
         <v>185</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" t="s">
         <v>1099</v>
       </c>
       <c r="F184" t="s">
@@ -8581,11 +8580,11 @@
       <c r="H184" t="s">
         <v>1035</v>
       </c>
-      <c r="I184" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1906</v>
       </c>
@@ -8595,7 +8594,7 @@
       <c r="D185" t="s">
         <v>186</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" t="s">
         <v>1099</v>
       </c>
       <c r="F185" t="s">
@@ -8607,11 +8606,11 @@
       <c r="H185" t="s">
         <v>1035</v>
       </c>
-      <c r="I185" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1906</v>
       </c>
@@ -8621,7 +8620,7 @@
       <c r="D186" t="s">
         <v>187</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" t="s">
         <v>1099</v>
       </c>
       <c r="F186" t="s">
@@ -8633,11 +8632,11 @@
       <c r="H186" t="s">
         <v>1035</v>
       </c>
-      <c r="I186" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I186" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1906</v>
       </c>
@@ -8647,7 +8646,7 @@
       <c r="D187" t="s">
         <v>188</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" t="s">
         <v>1099</v>
       </c>
       <c r="F187" t="s">
@@ -8659,11 +8658,11 @@
       <c r="H187" t="s">
         <v>1035</v>
       </c>
-      <c r="I187" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1906</v>
       </c>
@@ -8673,7 +8672,7 @@
       <c r="D188" t="s">
         <v>189</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" t="s">
         <v>1099</v>
       </c>
       <c r="F188" t="s">
@@ -8685,11 +8684,11 @@
       <c r="H188" t="s">
         <v>1035</v>
       </c>
-      <c r="I188" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1906</v>
       </c>
@@ -8699,7 +8698,7 @@
       <c r="D189" t="s">
         <v>190</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" t="s">
         <v>1099</v>
       </c>
       <c r="F189" t="s">
@@ -8715,7 +8714,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1906</v>
       </c>
@@ -8725,7 +8724,7 @@
       <c r="D190" t="s">
         <v>191</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" t="s">
         <v>1099</v>
       </c>
       <c r="F190" t="s">
@@ -8737,11 +8736,11 @@
       <c r="H190" t="s">
         <v>1036</v>
       </c>
-      <c r="I190" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1906</v>
       </c>
@@ -8751,7 +8750,7 @@
       <c r="D191" t="s">
         <v>192</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" t="s">
         <v>1099</v>
       </c>
       <c r="F191" t="s">
@@ -8763,11 +8762,11 @@
       <c r="H191" t="s">
         <v>1036</v>
       </c>
-      <c r="I191" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1906</v>
       </c>
@@ -8777,7 +8776,7 @@
       <c r="D192" t="s">
         <v>193</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" t="s">
         <v>1099</v>
       </c>
       <c r="F192" t="s">
@@ -8789,11 +8788,11 @@
       <c r="H192" t="s">
         <v>1036</v>
       </c>
-      <c r="I192" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1906</v>
       </c>
@@ -8803,7 +8802,7 @@
       <c r="D193" t="s">
         <v>194</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" t="s">
         <v>1099</v>
       </c>
       <c r="F193" t="s">
@@ -8815,11 +8814,11 @@
       <c r="H193" t="s">
         <v>1036</v>
       </c>
-      <c r="I193" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1906</v>
       </c>
@@ -8829,7 +8828,7 @@
       <c r="D194" t="s">
         <v>195</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" t="s">
         <v>1099</v>
       </c>
       <c r="F194" t="s">
@@ -8845,7 +8844,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1906</v>
       </c>
@@ -8855,7 +8854,7 @@
       <c r="D195" t="s">
         <v>196</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" t="s">
         <v>1099</v>
       </c>
       <c r="F195" t="s">
@@ -8867,11 +8866,11 @@
       <c r="H195" t="s">
         <v>1037</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="I195" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1906</v>
       </c>
@@ -8881,7 +8880,7 @@
       <c r="D196" t="s">
         <v>197</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" t="s">
         <v>1099</v>
       </c>
       <c r="F196" t="s">
@@ -8897,7 +8896,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1906</v>
       </c>
@@ -8907,7 +8906,7 @@
       <c r="D197" t="s">
         <v>198</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" t="s">
         <v>1099</v>
       </c>
       <c r="F197" t="s">
@@ -8919,11 +8918,11 @@
       <c r="H197" t="s">
         <v>1038</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="I197" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1906</v>
       </c>
@@ -8933,7 +8932,7 @@
       <c r="D198" t="s">
         <v>199</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" t="s">
         <v>1099</v>
       </c>
       <c r="F198" t="s">
@@ -8945,11 +8944,11 @@
       <c r="H198" t="s">
         <v>1038</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="I198" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1906</v>
       </c>
@@ -8971,11 +8970,11 @@
       <c r="H199" t="s">
         <v>1039</v>
       </c>
-      <c r="I199" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1906</v>
       </c>
@@ -8985,7 +8984,7 @@
       <c r="D200" t="s">
         <v>201</v>
       </c>
-      <c r="E200" s="1" t="s">
+      <c r="E200" t="s">
         <v>1100</v>
       </c>
       <c r="F200" t="s">
@@ -9001,7 +9000,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1906</v>
       </c>
@@ -9011,7 +9010,7 @@
       <c r="D201" t="s">
         <v>202</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E201" t="s">
         <v>1100</v>
       </c>
       <c r="F201" t="s">
@@ -9027,7 +9026,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1906</v>
       </c>
@@ -9037,7 +9036,7 @@
       <c r="D202" t="s">
         <v>203</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="E202" t="s">
         <v>1100</v>
       </c>
       <c r="F202" t="s">
@@ -9049,11 +9048,11 @@
       <c r="H202" t="s">
         <v>1042</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="I202" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1906</v>
       </c>
@@ -9063,7 +9062,7 @@
       <c r="D203" t="s">
         <v>204</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E203" t="s">
         <v>1100</v>
       </c>
       <c r="F203" t="s">
@@ -9075,11 +9074,11 @@
       <c r="H203" t="s">
         <v>1042</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="I203" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1906</v>
       </c>
@@ -9089,7 +9088,7 @@
       <c r="D204" t="s">
         <v>205</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="E204" t="s">
         <v>1100</v>
       </c>
       <c r="F204" t="s">
@@ -9101,11 +9100,11 @@
       <c r="H204" t="s">
         <v>1039</v>
       </c>
-      <c r="I204" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1906</v>
       </c>
@@ -9115,7 +9114,7 @@
       <c r="D205" t="s">
         <v>206</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" t="s">
         <v>1100</v>
       </c>
       <c r="F205" t="s">
@@ -9131,7 +9130,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1906</v>
       </c>
@@ -9141,7 +9140,7 @@
       <c r="D206" t="s">
         <v>207</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" t="s">
         <v>1100</v>
       </c>
       <c r="F206" t="s">
@@ -9153,11 +9152,11 @@
       <c r="H206" t="s">
         <v>1044</v>
       </c>
-      <c r="I206" s="1" t="s">
+      <c r="I206" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1906</v>
       </c>
@@ -9167,7 +9166,7 @@
       <c r="D207" t="s">
         <v>208</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" t="s">
         <v>1100</v>
       </c>
       <c r="F207" t="s">
@@ -9179,11 +9178,11 @@
       <c r="H207" t="s">
         <v>1044</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="I207" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1906</v>
       </c>
@@ -9193,7 +9192,7 @@
       <c r="D208" t="s">
         <v>209</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" t="s">
         <v>1100</v>
       </c>
       <c r="F208" t="s">
@@ -9205,11 +9204,11 @@
       <c r="H208" t="s">
         <v>1045</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="I208" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1906</v>
       </c>
@@ -9219,7 +9218,7 @@
       <c r="D209" t="s">
         <v>210</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209" t="s">
         <v>1100</v>
       </c>
       <c r="F209" t="s">
@@ -9231,11 +9230,11 @@
       <c r="H209" t="s">
         <v>1041</v>
       </c>
-      <c r="I209" s="1" t="s">
+      <c r="I209" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1906</v>
       </c>
@@ -9245,7 +9244,7 @@
       <c r="D210" t="s">
         <v>211</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" t="s">
         <v>1100</v>
       </c>
       <c r="F210" t="s">
@@ -9257,11 +9256,11 @@
       <c r="H210" t="s">
         <v>1040</v>
       </c>
-      <c r="I210" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1906</v>
       </c>
@@ -9271,7 +9270,7 @@
       <c r="D211" t="s">
         <v>212</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" t="s">
         <v>1100</v>
       </c>
       <c r="F211" t="s">
@@ -9283,11 +9282,11 @@
       <c r="H211" t="s">
         <v>1040</v>
       </c>
-      <c r="I211" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I211" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1906</v>
       </c>
@@ -9297,7 +9296,7 @@
       <c r="D212" t="s">
         <v>213</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" t="s">
         <v>1100</v>
       </c>
       <c r="F212" t="s">
@@ -9309,11 +9308,11 @@
       <c r="H212" t="s">
         <v>1044</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="I212" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1906</v>
       </c>
@@ -9323,7 +9322,7 @@
       <c r="D213" t="s">
         <v>214</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" t="s">
         <v>1100</v>
       </c>
       <c r="F213" t="s">
@@ -9335,11 +9334,11 @@
       <c r="H213" t="s">
         <v>1039</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I213" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1906</v>
       </c>
@@ -9349,7 +9348,7 @@
       <c r="D214" t="s">
         <v>215</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" t="s">
         <v>1100</v>
       </c>
       <c r="F214" t="s">
@@ -9361,11 +9360,11 @@
       <c r="H214" t="s">
         <v>1039</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I214" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1906</v>
       </c>
@@ -9375,7 +9374,7 @@
       <c r="D215" t="s">
         <v>216</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" t="s">
         <v>1100</v>
       </c>
       <c r="F215" t="s">
@@ -9387,11 +9386,11 @@
       <c r="H215" t="s">
         <v>1040</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I215" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1906</v>
       </c>
@@ -9401,7 +9400,7 @@
       <c r="D216" t="s">
         <v>217</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" t="s">
         <v>1100</v>
       </c>
       <c r="F216" t="s">
@@ -9413,11 +9412,11 @@
       <c r="H216" t="s">
         <v>1040</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1906</v>
       </c>
@@ -9427,7 +9426,7 @@
       <c r="D217" t="s">
         <v>218</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" t="s">
         <v>1100</v>
       </c>
       <c r="F217" t="s">
@@ -9437,13 +9436,13 @@
         <v>909</v>
       </c>
       <c r="H217" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I217" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1906</v>
       </c>
@@ -9453,7 +9452,7 @@
       <c r="D218" t="s">
         <v>219</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" t="s">
         <v>1100</v>
       </c>
       <c r="F218" t="s">
@@ -9469,7 +9468,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1906</v>
       </c>
@@ -9479,7 +9478,7 @@
       <c r="D219" t="s">
         <v>220</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" t="s">
         <v>1100</v>
       </c>
       <c r="F219" t="s">
@@ -9495,7 +9494,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1906</v>
       </c>
@@ -9505,7 +9504,7 @@
       <c r="D220" t="s">
         <v>221</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" t="s">
         <v>1100</v>
       </c>
       <c r="F220" t="s">
@@ -9517,11 +9516,11 @@
       <c r="H220" t="s">
         <v>1087</v>
       </c>
-      <c r="I220" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1906</v>
       </c>
@@ -9531,7 +9530,7 @@
       <c r="D221" t="s">
         <v>222</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" t="s">
         <v>1100</v>
       </c>
       <c r="F221" t="s">
@@ -9543,11 +9542,11 @@
       <c r="H221" t="s">
         <v>1087</v>
       </c>
-      <c r="I221" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I221" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1906</v>
       </c>
@@ -9557,7 +9556,7 @@
       <c r="D222" t="s">
         <v>223</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E222" t="s">
         <v>1100</v>
       </c>
       <c r="F222" t="s">
@@ -9569,11 +9568,11 @@
       <c r="H222" t="s">
         <v>1087</v>
       </c>
-      <c r="I222" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I222" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1906</v>
       </c>
@@ -9583,7 +9582,7 @@
       <c r="D223" t="s">
         <v>224</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E223" t="s">
         <v>1100</v>
       </c>
       <c r="F223" t="s">
@@ -9595,11 +9594,11 @@
       <c r="H223" t="s">
         <v>1046</v>
       </c>
-      <c r="I223" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I223" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1906</v>
       </c>
@@ -9609,7 +9608,7 @@
       <c r="D224" t="s">
         <v>225</v>
       </c>
-      <c r="E224" s="1" t="s">
+      <c r="E224" t="s">
         <v>1100</v>
       </c>
       <c r="F224" t="s">
@@ -9621,11 +9620,11 @@
       <c r="H224" t="s">
         <v>994</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="I224" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1906</v>
       </c>
@@ -9635,7 +9634,7 @@
       <c r="D225" t="s">
         <v>226</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" t="s">
         <v>1100</v>
       </c>
       <c r="F225" t="s">
@@ -9647,11 +9646,11 @@
       <c r="H225" t="s">
         <v>994</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="I225" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1906</v>
       </c>
@@ -9661,7 +9660,7 @@
       <c r="D226" t="s">
         <v>227</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="E226" t="s">
         <v>1100</v>
       </c>
       <c r="F226" t="s">
@@ -9677,7 +9676,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1906</v>
       </c>
@@ -9687,7 +9686,7 @@
       <c r="D227" t="s">
         <v>228</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="E227" t="s">
         <v>1100</v>
       </c>
       <c r="F227" t="s">
@@ -9699,11 +9698,11 @@
       <c r="H227" t="s">
         <v>994</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="I227" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1906</v>
       </c>
@@ -9713,7 +9712,7 @@
       <c r="D228" t="s">
         <v>229</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" t="s">
         <v>1100</v>
       </c>
       <c r="F228" t="s">
@@ -9725,14 +9724,14 @@
       <c r="H228" t="s">
         <v>1090</v>
       </c>
-      <c r="I228" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J228" s="1" t="s">
+      <c r="I228" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J228" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1906</v>
       </c>
@@ -9742,7 +9741,7 @@
       <c r="D229" t="s">
         <v>230</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" t="s">
         <v>1100</v>
       </c>
       <c r="F229" t="s">
@@ -9754,14 +9753,14 @@
       <c r="H229" t="s">
         <v>1090</v>
       </c>
-      <c r="I229" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J229" s="1" t="s">
+      <c r="I229" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J229" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1906</v>
       </c>
@@ -9771,7 +9770,7 @@
       <c r="D230" t="s">
         <v>231</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" t="s">
         <v>1100</v>
       </c>
       <c r="F230" t="s">
@@ -9783,11 +9782,11 @@
       <c r="H230" t="s">
         <v>1046</v>
       </c>
-      <c r="I230" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I230" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1906</v>
       </c>
@@ -9797,7 +9796,7 @@
       <c r="D231" t="s">
         <v>232</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" t="s">
         <v>1100</v>
       </c>
       <c r="F231" t="s">
@@ -9807,13 +9806,13 @@
         <v>855</v>
       </c>
       <c r="H231" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="I231" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1906</v>
       </c>
@@ -9823,7 +9822,7 @@
       <c r="D232" t="s">
         <v>233</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" t="s">
         <v>1100</v>
       </c>
       <c r="F232" t="s">
@@ -9833,13 +9832,13 @@
         <v>751</v>
       </c>
       <c r="H232" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I232" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I232" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1906</v>
       </c>
@@ -9849,7 +9848,7 @@
       <c r="D233" t="s">
         <v>234</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="E233" t="s">
         <v>1100</v>
       </c>
       <c r="F233" t="s">
@@ -9861,11 +9860,11 @@
       <c r="H233" t="s">
         <v>1087</v>
       </c>
-      <c r="I233" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I233" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1906</v>
       </c>
@@ -9875,7 +9874,7 @@
       <c r="D234" t="s">
         <v>235</v>
       </c>
-      <c r="E234" s="1" t="s">
+      <c r="E234" t="s">
         <v>1100</v>
       </c>
       <c r="F234" t="s">
@@ -9887,11 +9886,11 @@
       <c r="H234" t="s">
         <v>1046</v>
       </c>
-      <c r="I234" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I234" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1906</v>
       </c>
@@ -9901,7 +9900,7 @@
       <c r="D235" t="s">
         <v>236</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" t="s">
         <v>1100</v>
       </c>
       <c r="F235" t="s">
@@ -9916,11 +9915,11 @@
       <c r="I235" t="s">
         <v>1104</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="J235" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1906</v>
       </c>
@@ -9930,7 +9929,7 @@
       <c r="D236" t="s">
         <v>237</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E236" t="s">
         <v>1100</v>
       </c>
       <c r="F236" t="s">
@@ -9942,14 +9941,14 @@
       <c r="H236" t="s">
         <v>1090</v>
       </c>
-      <c r="I236" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J236" s="1" t="s">
+      <c r="I236" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J236" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1906</v>
       </c>
@@ -9959,7 +9958,7 @@
       <c r="D237" t="s">
         <v>238</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" t="s">
         <v>1100</v>
       </c>
       <c r="F237" t="s">
@@ -9971,11 +9970,11 @@
       <c r="H237" t="s">
         <v>1046</v>
       </c>
-      <c r="I237" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I237" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1906</v>
       </c>
@@ -9985,7 +9984,7 @@
       <c r="D238" t="s">
         <v>239</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" t="s">
         <v>1100</v>
       </c>
       <c r="F238" t="s">
@@ -9997,11 +9996,11 @@
       <c r="H238" t="s">
         <v>1048</v>
       </c>
-      <c r="I238" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I238" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1906</v>
       </c>
@@ -10011,7 +10010,7 @@
       <c r="D239" t="s">
         <v>240</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" t="s">
         <v>1100</v>
       </c>
       <c r="F239" t="s">
@@ -10023,11 +10022,11 @@
       <c r="H239" t="s">
         <v>1048</v>
       </c>
-      <c r="I239" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I239" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1906</v>
       </c>
@@ -10037,7 +10036,7 @@
       <c r="D240" t="s">
         <v>241</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" t="s">
         <v>1100</v>
       </c>
       <c r="F240" t="s">
@@ -10049,11 +10048,11 @@
       <c r="H240" t="s">
         <v>1048</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I240" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1906</v>
       </c>
@@ -10063,7 +10062,7 @@
       <c r="D241" t="s">
         <v>242</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E241" t="s">
         <v>1100</v>
       </c>
       <c r="F241" t="s">
@@ -10075,11 +10074,11 @@
       <c r="H241" t="s">
         <v>1048</v>
       </c>
-      <c r="I241" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I241" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1906</v>
       </c>
@@ -10089,7 +10088,7 @@
       <c r="D242" t="s">
         <v>243</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E242" t="s">
         <v>1100</v>
       </c>
       <c r="F242" t="s">
@@ -10105,7 +10104,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1906</v>
       </c>
@@ -10115,7 +10114,7 @@
       <c r="D243" t="s">
         <v>244</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E243" t="s">
         <v>1100</v>
       </c>
       <c r="F243" t="s">
@@ -10127,11 +10126,11 @@
       <c r="H243" t="s">
         <v>1095</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="I243" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1906</v>
       </c>
@@ -10141,7 +10140,7 @@
       <c r="D244" t="s">
         <v>245</v>
       </c>
-      <c r="E244" s="1" t="s">
+      <c r="E244" t="s">
         <v>1100</v>
       </c>
       <c r="F244" t="s">
@@ -10151,13 +10150,13 @@
         <v>920</v>
       </c>
       <c r="H244" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I244" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1906</v>
       </c>
@@ -10167,7 +10166,7 @@
       <c r="D245" t="s">
         <v>246</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="E245" t="s">
         <v>1100</v>
       </c>
       <c r="F245" t="s">
@@ -10176,14 +10175,14 @@
       <c r="G245" t="s">
         <v>921</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I245" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1906</v>
       </c>
@@ -10193,7 +10192,7 @@
       <c r="D246" t="s">
         <v>247</v>
       </c>
-      <c r="E246" s="1" t="s">
+      <c r="E246" t="s">
         <v>1100</v>
       </c>
       <c r="F246" t="s">
@@ -10209,7 +10208,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1906</v>
       </c>
@@ -10219,7 +10218,7 @@
       <c r="D247" t="s">
         <v>248</v>
       </c>
-      <c r="E247" s="1" t="s">
+      <c r="E247" t="s">
         <v>1100</v>
       </c>
       <c r="F247" t="s">
@@ -10231,11 +10230,11 @@
       <c r="H247" t="s">
         <v>1043</v>
       </c>
-      <c r="I247" s="1" t="s">
+      <c r="I247" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1906</v>
       </c>
@@ -10245,7 +10244,7 @@
       <c r="D248" t="s">
         <v>249</v>
       </c>
-      <c r="E248" s="1" t="s">
+      <c r="E248" t="s">
         <v>1100</v>
       </c>
       <c r="F248" t="s">
@@ -10261,7 +10260,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1906</v>
       </c>
@@ -10271,7 +10270,7 @@
       <c r="D249" t="s">
         <v>250</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E249" t="s">
         <v>1100</v>
       </c>
       <c r="F249" t="s">
@@ -10283,11 +10282,11 @@
       <c r="H249" t="s">
         <v>1049</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="I249" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1906</v>
       </c>
@@ -10297,7 +10296,7 @@
       <c r="D250" t="s">
         <v>251</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E250" t="s">
         <v>1100</v>
       </c>
       <c r="F250" t="s">
@@ -10309,11 +10308,11 @@
       <c r="H250" t="s">
         <v>1048</v>
       </c>
-      <c r="I250" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I250" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1906</v>
       </c>
@@ -10323,7 +10322,7 @@
       <c r="D251" t="s">
         <v>252</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="E251" t="s">
         <v>1100</v>
       </c>
       <c r="F251" t="s">
@@ -10335,11 +10334,11 @@
       <c r="H251" t="s">
         <v>1048</v>
       </c>
-      <c r="I251" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I251" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1906</v>
       </c>
@@ -10349,7 +10348,7 @@
       <c r="D252" t="s">
         <v>253</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E252" t="s">
         <v>1100</v>
       </c>
       <c r="F252" t="s">
@@ -10359,13 +10358,13 @@
         <v>925</v>
       </c>
       <c r="H252" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="I252" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1906</v>
       </c>
@@ -10375,7 +10374,7 @@
       <c r="D253" t="s">
         <v>254</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="E253" t="s">
         <v>1100</v>
       </c>
       <c r="F253" t="s">
@@ -10384,14 +10383,14 @@
       <c r="G253" t="s">
         <v>799</v>
       </c>
-      <c r="H253" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1906</v>
       </c>
@@ -10401,7 +10400,7 @@
       <c r="D254" t="s">
         <v>255</v>
       </c>
-      <c r="E254" s="1" t="s">
+      <c r="E254" t="s">
         <v>1100</v>
       </c>
       <c r="F254" t="s">
@@ -10410,14 +10409,14 @@
       <c r="G254" t="s">
         <v>926</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1906</v>
       </c>
@@ -10427,7 +10426,7 @@
       <c r="D255" t="s">
         <v>256</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E255" t="s">
         <v>1100</v>
       </c>
       <c r="F255" t="s">
@@ -10443,7 +10442,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1906</v>
       </c>
@@ -10453,7 +10452,7 @@
       <c r="D256" t="s">
         <v>257</v>
       </c>
-      <c r="E256" s="1" t="s">
+      <c r="E256" t="s">
         <v>1100</v>
       </c>
       <c r="F256" t="s">
@@ -10465,11 +10464,11 @@
       <c r="H256" t="s">
         <v>1050</v>
       </c>
-      <c r="I256" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1906</v>
       </c>
@@ -10482,7 +10481,7 @@
       <c r="D257" t="s">
         <v>258</v>
       </c>
-      <c r="E257" s="1" t="s">
+      <c r="E257" t="s">
         <v>1100</v>
       </c>
       <c r="F257" t="s">
@@ -10494,11 +10493,11 @@
       <c r="H257" t="s">
         <v>1050</v>
       </c>
-      <c r="I257" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1906</v>
       </c>
@@ -10508,7 +10507,7 @@
       <c r="D258" t="s">
         <v>259</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" t="s">
         <v>1100</v>
       </c>
       <c r="F258" t="s">
@@ -10520,11 +10519,11 @@
       <c r="H258" t="s">
         <v>1050</v>
       </c>
-      <c r="I258" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I258" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1906</v>
       </c>
@@ -10534,7 +10533,7 @@
       <c r="D259" t="s">
         <v>260</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="E259" t="s">
         <v>1100</v>
       </c>
       <c r="F259" t="s">
@@ -10546,11 +10545,11 @@
       <c r="H259" t="s">
         <v>1050</v>
       </c>
-      <c r="I259" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1906</v>
       </c>
@@ -10560,7 +10559,7 @@
       <c r="D260" t="s">
         <v>261</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="E260" t="s">
         <v>1100</v>
       </c>
       <c r="F260" t="s">
@@ -10572,11 +10571,11 @@
       <c r="H260" t="s">
         <v>1051</v>
       </c>
-      <c r="I260" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1906</v>
       </c>
@@ -10586,7 +10585,7 @@
       <c r="D261" t="s">
         <v>262</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E261" t="s">
         <v>1100</v>
       </c>
       <c r="F261" t="s">
@@ -10598,11 +10597,11 @@
       <c r="H261" t="s">
         <v>1051</v>
       </c>
-      <c r="I261" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1906</v>
       </c>
@@ -10612,7 +10611,7 @@
       <c r="D262" t="s">
         <v>263</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="E262" t="s">
         <v>1100</v>
       </c>
       <c r="F262" t="s">
@@ -10624,11 +10623,11 @@
       <c r="H262" t="s">
         <v>1052</v>
       </c>
-      <c r="I262" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1906</v>
       </c>
@@ -10638,7 +10637,7 @@
       <c r="D263" t="s">
         <v>264</v>
       </c>
-      <c r="E263" s="1" t="s">
+      <c r="E263" t="s">
         <v>1100</v>
       </c>
       <c r="F263" t="s">
@@ -10650,11 +10649,11 @@
       <c r="H263" t="s">
         <v>1052</v>
       </c>
-      <c r="I263" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I263" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1906</v>
       </c>
@@ -10664,7 +10663,7 @@
       <c r="D264" t="s">
         <v>265</v>
       </c>
-      <c r="E264" s="1" t="s">
+      <c r="E264" t="s">
         <v>1100</v>
       </c>
       <c r="F264" t="s">
@@ -10680,7 +10679,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1906</v>
       </c>
@@ -10690,7 +10689,7 @@
       <c r="D265" t="s">
         <v>266</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E265" t="s">
         <v>1100</v>
       </c>
       <c r="F265" t="s">
@@ -10702,11 +10701,11 @@
       <c r="H265" t="s">
         <v>1051</v>
       </c>
-      <c r="I265" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I265" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1906</v>
       </c>
@@ -10716,7 +10715,7 @@
       <c r="D266" t="s">
         <v>267</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E266" t="s">
         <v>1100</v>
       </c>
       <c r="F266" t="s">
@@ -10728,11 +10727,11 @@
       <c r="H266" t="s">
         <v>1052</v>
       </c>
-      <c r="I266" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I266" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1906</v>
       </c>
@@ -10742,7 +10741,7 @@
       <c r="D267" t="s">
         <v>268</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="E267" t="s">
         <v>1100</v>
       </c>
       <c r="F267" t="s">
@@ -10758,7 +10757,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1906</v>
       </c>
@@ -10768,7 +10767,7 @@
       <c r="D268" t="s">
         <v>269</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="E268" t="s">
         <v>1100</v>
       </c>
       <c r="F268" t="s">
@@ -10780,11 +10779,11 @@
       <c r="H268" t="s">
         <v>1051</v>
       </c>
-      <c r="I268" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I268" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1906</v>
       </c>
@@ -10794,7 +10793,7 @@
       <c r="D269" t="s">
         <v>270</v>
       </c>
-      <c r="E269" s="1" t="s">
+      <c r="E269" t="s">
         <v>1100</v>
       </c>
       <c r="F269" t="s">
@@ -10806,11 +10805,11 @@
       <c r="H269" t="s">
         <v>1051</v>
       </c>
-      <c r="I269" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I269" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1906</v>
       </c>
@@ -10820,7 +10819,7 @@
       <c r="D270" t="s">
         <v>271</v>
       </c>
-      <c r="E270" s="1" t="s">
+      <c r="E270" t="s">
         <v>1100</v>
       </c>
       <c r="F270" t="s">
@@ -10832,11 +10831,11 @@
       <c r="H270" t="s">
         <v>1052</v>
       </c>
-      <c r="I270" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I270" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1906</v>
       </c>
@@ -10846,7 +10845,7 @@
       <c r="D271" t="s">
         <v>272</v>
       </c>
-      <c r="E271" s="1" t="s">
+      <c r="E271" t="s">
         <v>1100</v>
       </c>
       <c r="F271" t="s">
@@ -10858,11 +10857,11 @@
       <c r="H271" t="s">
         <v>1055</v>
       </c>
-      <c r="I271" s="1" t="s">
+      <c r="I271" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1906</v>
       </c>
@@ -10872,7 +10871,7 @@
       <c r="D272" t="s">
         <v>273</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="E272" t="s">
         <v>1100</v>
       </c>
       <c r="F272" t="s">
@@ -10884,11 +10883,11 @@
       <c r="H272" t="s">
         <v>1047</v>
       </c>
-      <c r="I272" s="1" t="s">
+      <c r="I272" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1906</v>
       </c>
@@ -10898,7 +10897,7 @@
       <c r="D273" t="s">
         <v>274</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="E273" t="s">
         <v>1100</v>
       </c>
       <c r="F273" t="s">
@@ -10910,11 +10909,11 @@
       <c r="H273" t="s">
         <v>1056</v>
       </c>
-      <c r="I273" s="1" t="s">
+      <c r="I273" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1906</v>
       </c>
@@ -10924,7 +10923,7 @@
       <c r="D274" t="s">
         <v>275</v>
       </c>
-      <c r="E274" s="1" t="s">
+      <c r="E274" t="s">
         <v>1100</v>
       </c>
       <c r="F274" t="s">
@@ -10934,13 +10933,13 @@
         <v>936</v>
       </c>
       <c r="H274" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1906</v>
       </c>
@@ -10950,7 +10949,7 @@
       <c r="D275" t="s">
         <v>276</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E275" t="s">
         <v>1100</v>
       </c>
       <c r="F275" t="s">
@@ -10960,13 +10959,13 @@
         <v>937</v>
       </c>
       <c r="H275" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1906</v>
       </c>
@@ -10976,7 +10975,7 @@
       <c r="D276" t="s">
         <v>277</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="E276" t="s">
         <v>1100</v>
       </c>
       <c r="F276" t="s">
@@ -10986,13 +10985,13 @@
         <v>938</v>
       </c>
       <c r="H276" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1906</v>
       </c>
@@ -11002,7 +11001,7 @@
       <c r="D277" t="s">
         <v>278</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="E277" t="s">
         <v>1100</v>
       </c>
       <c r="F277" t="s">
@@ -11014,11 +11013,11 @@
       <c r="H277" t="s">
         <v>1057</v>
       </c>
-      <c r="I277" s="1" t="s">
+      <c r="I277" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1906</v>
       </c>
@@ -11028,7 +11027,7 @@
       <c r="D278" t="s">
         <v>279</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="E278" t="s">
         <v>1100</v>
       </c>
       <c r="F278" t="s">
@@ -11044,7 +11043,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1906</v>
       </c>
@@ -11054,7 +11053,7 @@
       <c r="D279" t="s">
         <v>280</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279" t="s">
         <v>1100</v>
       </c>
       <c r="F279" t="s">
@@ -11066,11 +11065,11 @@
       <c r="H279" t="s">
         <v>1058</v>
       </c>
-      <c r="I279" s="1" t="s">
+      <c r="I279" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1906</v>
       </c>
@@ -11080,7 +11079,7 @@
       <c r="D280" t="s">
         <v>281</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E280" t="s">
         <v>1100</v>
       </c>
       <c r="F280" t="s">
@@ -11092,11 +11091,11 @@
       <c r="H280" t="s">
         <v>1088</v>
       </c>
-      <c r="I280" s="1" t="s">
+      <c r="I280" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1906</v>
       </c>
@@ -11106,7 +11105,7 @@
       <c r="D281" t="s">
         <v>282</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="E281" t="s">
         <v>1100</v>
       </c>
       <c r="F281" t="s">
@@ -11118,11 +11117,11 @@
       <c r="H281" t="s">
         <v>1088</v>
       </c>
-      <c r="I281" s="1" t="s">
+      <c r="I281" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1906</v>
       </c>
@@ -11132,7 +11131,7 @@
       <c r="D282" t="s">
         <v>283</v>
       </c>
-      <c r="E282" s="1" t="s">
+      <c r="E282" t="s">
         <v>1100</v>
       </c>
       <c r="F282" t="s">
@@ -11148,7 +11147,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1906</v>
       </c>
@@ -11161,7 +11160,7 @@
       <c r="D283" t="s">
         <v>284</v>
       </c>
-      <c r="E283" s="1" t="s">
+      <c r="E283" t="s">
         <v>1100</v>
       </c>
       <c r="F283" t="s">
@@ -11173,11 +11172,11 @@
       <c r="H283" t="s">
         <v>1089</v>
       </c>
-      <c r="I283" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I283" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1906</v>
       </c>
@@ -11187,7 +11186,7 @@
       <c r="D284" t="s">
         <v>285</v>
       </c>
-      <c r="E284" s="1" t="s">
+      <c r="E284" t="s">
         <v>1100</v>
       </c>
       <c r="F284" t="s">
@@ -11199,11 +11198,11 @@
       <c r="H284" t="s">
         <v>1059</v>
       </c>
-      <c r="I284" s="1" t="s">
+      <c r="I284" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1906</v>
       </c>
@@ -11213,7 +11212,7 @@
       <c r="D285" t="s">
         <v>286</v>
       </c>
-      <c r="E285" s="1" t="s">
+      <c r="E285" t="s">
         <v>1100</v>
       </c>
       <c r="F285" t="s">
@@ -11225,11 +11224,11 @@
       <c r="H285" t="s">
         <v>1060</v>
       </c>
-      <c r="I285" s="1" t="s">
+      <c r="I285" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1906</v>
       </c>
@@ -11239,7 +11238,7 @@
       <c r="D286" t="s">
         <v>287</v>
       </c>
-      <c r="E286" s="1" t="s">
+      <c r="E286" t="s">
         <v>1100</v>
       </c>
       <c r="F286" t="s">
@@ -11251,11 +11250,11 @@
       <c r="H286" t="s">
         <v>1057</v>
       </c>
-      <c r="I286" s="1" t="s">
+      <c r="I286" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1906</v>
       </c>
@@ -11265,7 +11264,7 @@
       <c r="D287" t="s">
         <v>288</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="E287" t="s">
         <v>1100</v>
       </c>
       <c r="F287" t="s">
@@ -11275,13 +11274,13 @@
         <v>944</v>
       </c>
       <c r="H287" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1906</v>
       </c>
@@ -11291,7 +11290,7 @@
       <c r="D288" t="s">
         <v>289</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E288" t="s">
         <v>1100</v>
       </c>
       <c r="F288" t="s">
@@ -11301,13 +11300,13 @@
         <v>945</v>
       </c>
       <c r="H288" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1906</v>
       </c>
@@ -11317,7 +11316,7 @@
       <c r="D289" t="s">
         <v>290</v>
       </c>
-      <c r="E289" s="1" t="s">
+      <c r="E289" t="s">
         <v>1100</v>
       </c>
       <c r="F289" t="s">
@@ -11329,11 +11328,11 @@
       <c r="H289" t="s">
         <v>1057</v>
       </c>
-      <c r="I289" s="1" t="s">
+      <c r="I289" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1906</v>
       </c>
@@ -11343,7 +11342,7 @@
       <c r="D290" t="s">
         <v>291</v>
       </c>
-      <c r="E290" s="1" t="s">
+      <c r="E290" t="s">
         <v>1100</v>
       </c>
       <c r="F290" t="s">
@@ -11355,11 +11354,11 @@
       <c r="H290" t="s">
         <v>1089</v>
       </c>
-      <c r="I290" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I290" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1906</v>
       </c>
@@ -11369,7 +11368,7 @@
       <c r="D291" t="s">
         <v>292</v>
       </c>
-      <c r="E291" s="1" t="s">
+      <c r="E291" t="s">
         <v>1100</v>
       </c>
       <c r="F291" t="s">
@@ -11381,11 +11380,11 @@
       <c r="H291" t="s">
         <v>1060</v>
       </c>
-      <c r="I291" s="1" t="s">
+      <c r="I291" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1906</v>
       </c>
@@ -11395,7 +11394,7 @@
       <c r="D292" t="s">
         <v>293</v>
       </c>
-      <c r="E292" s="1" t="s">
+      <c r="E292" t="s">
         <v>1100</v>
       </c>
       <c r="F292" t="s">
@@ -11407,11 +11406,11 @@
       <c r="H292" t="s">
         <v>1061</v>
       </c>
-      <c r="I292" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I292" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1906</v>
       </c>
@@ -11421,7 +11420,7 @@
       <c r="D293" t="s">
         <v>294</v>
       </c>
-      <c r="E293" s="1" t="s">
+      <c r="E293" t="s">
         <v>1100</v>
       </c>
       <c r="F293" t="s">
@@ -11433,11 +11432,11 @@
       <c r="H293" t="s">
         <v>1062</v>
       </c>
-      <c r="I293" s="1" t="s">
+      <c r="I293" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1906</v>
       </c>
@@ -11447,7 +11446,7 @@
       <c r="D294" t="s">
         <v>295</v>
       </c>
-      <c r="E294" s="1" t="s">
+      <c r="E294" t="s">
         <v>1100</v>
       </c>
       <c r="F294" t="s">
@@ -11459,11 +11458,11 @@
       <c r="H294" t="s">
         <v>1046</v>
       </c>
-      <c r="I294" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I294" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1906</v>
       </c>
@@ -11473,7 +11472,7 @@
       <c r="D295" t="s">
         <v>296</v>
       </c>
-      <c r="E295" s="1" t="s">
+      <c r="E295" t="s">
         <v>1100</v>
       </c>
       <c r="F295" t="s">
@@ -11485,11 +11484,11 @@
       <c r="H295" t="s">
         <v>1063</v>
       </c>
-      <c r="I295" s="1" t="s">
+      <c r="I295" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1906</v>
       </c>
@@ -11499,7 +11498,7 @@
       <c r="D296" t="s">
         <v>297</v>
       </c>
-      <c r="E296" s="1" t="s">
+      <c r="E296" t="s">
         <v>1100</v>
       </c>
       <c r="F296" t="s">
@@ -11511,11 +11510,11 @@
       <c r="H296" t="s">
         <v>1062</v>
       </c>
-      <c r="I296" s="1" t="s">
+      <c r="I296" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1906</v>
       </c>
@@ -11528,7 +11527,7 @@
       <c r="D297" t="s">
         <v>298</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="E297" t="s">
         <v>1100</v>
       </c>
       <c r="F297" t="s">
@@ -11540,11 +11539,11 @@
       <c r="H297" t="s">
         <v>1061</v>
       </c>
-      <c r="I297" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I297" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1906</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1906</v>
       </c>
@@ -11583,7 +11582,7 @@
       <c r="D299" t="s">
         <v>300</v>
       </c>
-      <c r="E299" s="1" t="s">
+      <c r="E299" t="s">
         <v>1101</v>
       </c>
       <c r="F299" t="s">
@@ -11595,14 +11594,14 @@
       <c r="H299" t="s">
         <v>1064</v>
       </c>
-      <c r="I299" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J299" s="1" t="s">
+      <c r="I299" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J299" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1906</v>
       </c>
@@ -11612,7 +11611,7 @@
       <c r="D300" t="s">
         <v>301</v>
       </c>
-      <c r="E300" s="1" t="s">
+      <c r="E300" t="s">
         <v>1101</v>
       </c>
       <c r="F300" t="s">
@@ -11624,14 +11623,14 @@
       <c r="H300" t="s">
         <v>1064</v>
       </c>
-      <c r="I300" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J300" s="1" t="s">
+      <c r="I300" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J300" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1906</v>
       </c>
@@ -11641,7 +11640,7 @@
       <c r="D301" t="s">
         <v>302</v>
       </c>
-      <c r="E301" s="1" t="s">
+      <c r="E301" t="s">
         <v>1101</v>
       </c>
       <c r="F301" t="s">
@@ -11657,7 +11656,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1906</v>
       </c>
@@ -11667,7 +11666,7 @@
       <c r="D302" t="s">
         <v>303</v>
       </c>
-      <c r="E302" s="1" t="s">
+      <c r="E302" t="s">
         <v>1101</v>
       </c>
       <c r="F302" t="s">
@@ -11679,11 +11678,11 @@
       <c r="H302" t="s">
         <v>1065</v>
       </c>
-      <c r="I302" s="1" t="s">
+      <c r="I302" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1906</v>
       </c>
@@ -11693,7 +11692,7 @@
       <c r="D303" t="s">
         <v>304</v>
       </c>
-      <c r="E303" s="1" t="s">
+      <c r="E303" t="s">
         <v>1101</v>
       </c>
       <c r="F303" t="s">
@@ -11705,11 +11704,11 @@
       <c r="H303" t="s">
         <v>1065</v>
       </c>
-      <c r="I303" s="1" t="s">
+      <c r="I303" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1906</v>
       </c>
@@ -11719,7 +11718,7 @@
       <c r="D304" t="s">
         <v>305</v>
       </c>
-      <c r="E304" s="1" t="s">
+      <c r="E304" t="s">
         <v>1101</v>
       </c>
       <c r="F304" t="s">
@@ -11735,7 +11734,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1906</v>
       </c>
@@ -11745,7 +11744,7 @@
       <c r="D305" t="s">
         <v>306</v>
       </c>
-      <c r="E305" s="1" t="s">
+      <c r="E305" t="s">
         <v>1101</v>
       </c>
       <c r="F305" t="s">
@@ -11757,11 +11756,11 @@
       <c r="H305" t="s">
         <v>1066</v>
       </c>
-      <c r="I305" s="1" t="s">
+      <c r="I305" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1906</v>
       </c>
@@ -11771,7 +11770,7 @@
       <c r="D306" t="s">
         <v>307</v>
       </c>
-      <c r="E306" s="1" t="s">
+      <c r="E306" t="s">
         <v>1101</v>
       </c>
       <c r="F306" t="s">
@@ -11783,11 +11782,11 @@
       <c r="H306" t="s">
         <v>1066</v>
       </c>
-      <c r="I306" s="1" t="s">
+      <c r="I306" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1906</v>
       </c>
@@ -11800,7 +11799,7 @@
       <c r="D307" t="s">
         <v>308</v>
       </c>
-      <c r="E307" s="1" t="s">
+      <c r="E307" t="s">
         <v>1101</v>
       </c>
       <c r="F307" t="s">
@@ -11812,11 +11811,11 @@
       <c r="H307" t="s">
         <v>1067</v>
       </c>
-      <c r="I307" s="1" t="s">
+      <c r="I307" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1906</v>
       </c>
@@ -11829,7 +11828,7 @@
       <c r="D308" t="s">
         <v>309</v>
       </c>
-      <c r="E308" s="1" t="s">
+      <c r="E308" t="s">
         <v>1101</v>
       </c>
       <c r="F308" t="s">
@@ -11841,11 +11840,11 @@
       <c r="H308" t="s">
         <v>1067</v>
       </c>
-      <c r="I308" s="1" t="s">
+      <c r="I308" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1906</v>
       </c>
@@ -11858,7 +11857,7 @@
       <c r="D309" t="s">
         <v>310</v>
       </c>
-      <c r="E309" s="1" t="s">
+      <c r="E309" t="s">
         <v>1101</v>
       </c>
       <c r="F309" t="s">
@@ -11870,11 +11869,11 @@
       <c r="H309" t="s">
         <v>1067</v>
       </c>
-      <c r="I309" s="1" t="s">
+      <c r="I309" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1906</v>
       </c>
@@ -11884,7 +11883,7 @@
       <c r="D310" t="s">
         <v>311</v>
       </c>
-      <c r="E310" s="1" t="s">
+      <c r="E310" t="s">
         <v>1101</v>
       </c>
       <c r="F310" t="s">
@@ -11900,7 +11899,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1906</v>
       </c>
@@ -11910,7 +11909,7 @@
       <c r="D311" t="s">
         <v>312</v>
       </c>
-      <c r="E311" s="1" t="s">
+      <c r="E311" t="s">
         <v>1101</v>
       </c>
       <c r="F311" t="s">
@@ -11922,11 +11921,11 @@
       <c r="H311" t="s">
         <v>1068</v>
       </c>
-      <c r="I311" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I311" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1906</v>
       </c>
@@ -11936,7 +11935,7 @@
       <c r="D312" t="s">
         <v>313</v>
       </c>
-      <c r="E312" s="1" t="s">
+      <c r="E312" t="s">
         <v>1101</v>
       </c>
       <c r="F312" t="s">
@@ -11948,11 +11947,11 @@
       <c r="H312" t="s">
         <v>1068</v>
       </c>
-      <c r="I312" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I312" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1906</v>
       </c>
@@ -11962,7 +11961,7 @@
       <c r="D313" t="s">
         <v>314</v>
       </c>
-      <c r="E313" s="1" t="s">
+      <c r="E313" t="s">
         <v>1101</v>
       </c>
       <c r="F313" t="s">
@@ -11978,7 +11977,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1906</v>
       </c>
@@ -11988,7 +11987,7 @@
       <c r="D314" t="s">
         <v>315</v>
       </c>
-      <c r="E314" s="1" t="s">
+      <c r="E314" t="s">
         <v>1101</v>
       </c>
       <c r="F314" t="s">
@@ -12000,11 +11999,11 @@
       <c r="H314" t="s">
         <v>1069</v>
       </c>
-      <c r="I314" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I314" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1906</v>
       </c>
@@ -12014,7 +12013,7 @@
       <c r="D315" t="s">
         <v>316</v>
       </c>
-      <c r="E315" s="1" t="s">
+      <c r="E315" t="s">
         <v>1101</v>
       </c>
       <c r="F315" t="s">
@@ -12026,11 +12025,11 @@
       <c r="H315" t="s">
         <v>1069</v>
       </c>
-      <c r="I315" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I315" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1906</v>
       </c>
@@ -12040,7 +12039,7 @@
       <c r="D316" t="s">
         <v>317</v>
       </c>
-      <c r="E316" s="1" t="s">
+      <c r="E316" t="s">
         <v>1101</v>
       </c>
       <c r="F316" t="s">
@@ -12052,11 +12051,11 @@
       <c r="H316" t="s">
         <v>1069</v>
       </c>
-      <c r="I316" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I316" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1906</v>
       </c>
@@ -12066,7 +12065,7 @@
       <c r="D317" t="s">
         <v>318</v>
       </c>
-      <c r="E317" s="1" t="s">
+      <c r="E317" t="s">
         <v>1101</v>
       </c>
       <c r="F317" t="s">
@@ -12078,11 +12077,11 @@
       <c r="H317" t="s">
         <v>1069</v>
       </c>
-      <c r="I317" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I317" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1906</v>
       </c>
@@ -12092,7 +12091,7 @@
       <c r="D318" t="s">
         <v>319</v>
       </c>
-      <c r="E318" s="1" t="s">
+      <c r="E318" t="s">
         <v>1101</v>
       </c>
       <c r="F318" t="s">
@@ -12104,11 +12103,11 @@
       <c r="H318" t="s">
         <v>1069</v>
       </c>
-      <c r="I318" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I318" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1906</v>
       </c>
@@ -12118,7 +12117,7 @@
       <c r="D319" t="s">
         <v>320</v>
       </c>
-      <c r="E319" s="1" t="s">
+      <c r="E319" t="s">
         <v>1101</v>
       </c>
       <c r="F319" t="s">
@@ -12130,11 +12129,11 @@
       <c r="H319" t="s">
         <v>1069</v>
       </c>
-      <c r="I319" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I319" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1906</v>
       </c>
@@ -12144,7 +12143,7 @@
       <c r="D320" t="s">
         <v>321</v>
       </c>
-      <c r="E320" s="1" t="s">
+      <c r="E320" t="s">
         <v>1101</v>
       </c>
       <c r="F320" t="s">
@@ -12156,11 +12155,11 @@
       <c r="H320" t="s">
         <v>1069</v>
       </c>
-      <c r="I320" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I320" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1906</v>
       </c>
@@ -12170,7 +12169,7 @@
       <c r="D321" t="s">
         <v>322</v>
       </c>
-      <c r="E321" s="1" t="s">
+      <c r="E321" t="s">
         <v>1101</v>
       </c>
       <c r="F321" t="s">
@@ -12182,11 +12181,11 @@
       <c r="H321" t="s">
         <v>1070</v>
       </c>
-      <c r="I321" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I321" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1906</v>
       </c>
@@ -12196,7 +12195,7 @@
       <c r="D322" t="s">
         <v>323</v>
       </c>
-      <c r="E322" s="1" t="s">
+      <c r="E322" t="s">
         <v>1101</v>
       </c>
       <c r="F322" t="s">
@@ -12208,11 +12207,11 @@
       <c r="H322" t="s">
         <v>1070</v>
       </c>
-      <c r="I322" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I322" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1906</v>
       </c>
@@ -12222,7 +12221,7 @@
       <c r="D323" t="s">
         <v>324</v>
       </c>
-      <c r="E323" s="1" t="s">
+      <c r="E323" t="s">
         <v>1101</v>
       </c>
       <c r="F323" t="s">
@@ -12234,11 +12233,11 @@
       <c r="H323" t="s">
         <v>1070</v>
       </c>
-      <c r="I323" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I323" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1906</v>
       </c>
@@ -12248,7 +12247,7 @@
       <c r="D324" t="s">
         <v>325</v>
       </c>
-      <c r="E324" s="1" t="s">
+      <c r="E324" t="s">
         <v>1101</v>
       </c>
       <c r="F324" t="s">
@@ -12260,11 +12259,11 @@
       <c r="H324" t="s">
         <v>1070</v>
       </c>
-      <c r="I324" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I324" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1906</v>
       </c>
@@ -12274,7 +12273,7 @@
       <c r="D325" t="s">
         <v>326</v>
       </c>
-      <c r="E325" s="1" t="s">
+      <c r="E325" t="s">
         <v>1101</v>
       </c>
       <c r="F325" t="s">
@@ -12286,11 +12285,11 @@
       <c r="H325" t="s">
         <v>1070</v>
       </c>
-      <c r="I325" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I325" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1906</v>
       </c>
@@ -12300,7 +12299,7 @@
       <c r="D326" t="s">
         <v>327</v>
       </c>
-      <c r="E326" s="1" t="s">
+      <c r="E326" t="s">
         <v>1101</v>
       </c>
       <c r="F326" t="s">
@@ -12312,11 +12311,11 @@
       <c r="H326" t="s">
         <v>1070</v>
       </c>
-      <c r="I326" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I326" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1906</v>
       </c>
@@ -12326,7 +12325,7 @@
       <c r="D327" t="s">
         <v>328</v>
       </c>
-      <c r="E327" s="1" t="s">
+      <c r="E327" t="s">
         <v>1101</v>
       </c>
       <c r="F327" t="s">
@@ -12338,11 +12337,11 @@
       <c r="H327" t="s">
         <v>1070</v>
       </c>
-      <c r="I327" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I327" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1906</v>
       </c>
@@ -12352,7 +12351,7 @@
       <c r="D328" t="s">
         <v>329</v>
       </c>
-      <c r="E328" s="1" t="s">
+      <c r="E328" t="s">
         <v>1101</v>
       </c>
       <c r="F328" t="s">
@@ -12364,11 +12363,11 @@
       <c r="H328" t="s">
         <v>1070</v>
       </c>
-      <c r="I328" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I328" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1906</v>
       </c>
@@ -12378,7 +12377,7 @@
       <c r="D329" t="s">
         <v>330</v>
       </c>
-      <c r="E329" s="1" t="s">
+      <c r="E329" t="s">
         <v>1101</v>
       </c>
       <c r="F329" t="s">
@@ -12390,11 +12389,11 @@
       <c r="H329" t="s">
         <v>1070</v>
       </c>
-      <c r="I329" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I329" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1906</v>
       </c>
@@ -12404,7 +12403,7 @@
       <c r="D330" t="s">
         <v>331</v>
       </c>
-      <c r="E330" s="1" t="s">
+      <c r="E330" t="s">
         <v>1101</v>
       </c>
       <c r="F330" t="s">
@@ -12420,7 +12419,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1906</v>
       </c>
@@ -12430,7 +12429,7 @@
       <c r="D331" t="s">
         <v>332</v>
       </c>
-      <c r="E331" s="1" t="s">
+      <c r="E331" t="s">
         <v>1101</v>
       </c>
       <c r="F331" t="s">
@@ -12442,11 +12441,11 @@
       <c r="H331" t="s">
         <v>1071</v>
       </c>
-      <c r="I331" s="1" t="s">
+      <c r="I331" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1906</v>
       </c>
@@ -12456,7 +12455,7 @@
       <c r="D332" t="s">
         <v>333</v>
       </c>
-      <c r="E332" s="1" t="s">
+      <c r="E332" t="s">
         <v>1101</v>
       </c>
       <c r="F332" t="s">
@@ -12468,11 +12467,11 @@
       <c r="H332" t="s">
         <v>1071</v>
       </c>
-      <c r="I332" s="1" t="s">
+      <c r="I332" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1906</v>
       </c>
@@ -12482,7 +12481,7 @@
       <c r="D333" t="s">
         <v>334</v>
       </c>
-      <c r="E333" s="1" t="s">
+      <c r="E333" t="s">
         <v>1101</v>
       </c>
       <c r="F333" t="s">
@@ -12498,7 +12497,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1906</v>
       </c>
@@ -12511,7 +12510,7 @@
       <c r="D334" t="s">
         <v>335</v>
       </c>
-      <c r="E334" s="1" t="s">
+      <c r="E334" t="s">
         <v>1101</v>
       </c>
       <c r="F334" t="s">
@@ -12527,7 +12526,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1906</v>
       </c>
@@ -12540,7 +12539,7 @@
       <c r="D335" t="s">
         <v>336</v>
       </c>
-      <c r="E335" s="1" t="s">
+      <c r="E335" t="s">
         <v>1101</v>
       </c>
       <c r="F335" t="s">
@@ -12552,11 +12551,11 @@
       <c r="H335" t="s">
         <v>1073</v>
       </c>
-      <c r="I335" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I335" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1906</v>
       </c>
@@ -12569,7 +12568,7 @@
       <c r="D336" t="s">
         <v>337</v>
       </c>
-      <c r="E336" s="1" t="s">
+      <c r="E336" t="s">
         <v>1101</v>
       </c>
       <c r="F336" t="s">
@@ -12581,11 +12580,11 @@
       <c r="H336" t="s">
         <v>1073</v>
       </c>
-      <c r="I336" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I336" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1906</v>
       </c>
@@ -12598,7 +12597,7 @@
       <c r="D337" t="s">
         <v>338</v>
       </c>
-      <c r="E337" s="1" t="s">
+      <c r="E337" t="s">
         <v>1101</v>
       </c>
       <c r="F337" t="s">
@@ -12610,11 +12609,11 @@
       <c r="H337" t="s">
         <v>1073</v>
       </c>
-      <c r="I337" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I337" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1906</v>
       </c>
@@ -12627,7 +12626,7 @@
       <c r="D338" t="s">
         <v>339</v>
       </c>
-      <c r="E338" s="1" t="s">
+      <c r="E338" t="s">
         <v>1101</v>
       </c>
       <c r="F338" t="s">
@@ -12637,13 +12636,13 @@
         <v>971</v>
       </c>
       <c r="H338" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I338" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1906</v>
       </c>
@@ -12656,7 +12655,7 @@
       <c r="D339" t="s">
         <v>340</v>
       </c>
-      <c r="E339" s="1" t="s">
+      <c r="E339" t="s">
         <v>1101</v>
       </c>
       <c r="F339" t="s">
@@ -12666,13 +12665,13 @@
         <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I339" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1906</v>
       </c>
@@ -12685,7 +12684,7 @@
       <c r="D340" t="s">
         <v>341</v>
       </c>
-      <c r="E340" s="1" t="s">
+      <c r="E340" t="s">
         <v>1101</v>
       </c>
       <c r="F340" t="s">
@@ -12695,13 +12694,13 @@
         <v>973</v>
       </c>
       <c r="H340" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I340" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1906</v>
       </c>
@@ -12714,7 +12713,7 @@
       <c r="D341" t="s">
         <v>342</v>
       </c>
-      <c r="E341" s="1" t="s">
+      <c r="E341" t="s">
         <v>1101</v>
       </c>
       <c r="F341" t="s">
@@ -12724,13 +12723,13 @@
         <v>751</v>
       </c>
       <c r="H341" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I341" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1906</v>
       </c>
@@ -12740,7 +12739,7 @@
       <c r="D342" t="s">
         <v>343</v>
       </c>
-      <c r="E342" s="1" t="s">
+      <c r="E342" t="s">
         <v>1101</v>
       </c>
       <c r="F342" t="s">
@@ -12756,7 +12755,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1906</v>
       </c>
@@ -12766,7 +12765,7 @@
       <c r="D343" t="s">
         <v>344</v>
       </c>
-      <c r="E343" s="1" t="s">
+      <c r="E343" t="s">
         <v>1101</v>
       </c>
       <c r="F343" t="s">
@@ -12778,11 +12777,11 @@
       <c r="H343" t="s">
         <v>1074</v>
       </c>
-      <c r="I343" s="1" t="s">
+      <c r="I343" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1906</v>
       </c>
@@ -12792,7 +12791,7 @@
       <c r="D344" t="s">
         <v>345</v>
       </c>
-      <c r="E344" s="1" t="s">
+      <c r="E344" t="s">
         <v>1101</v>
       </c>
       <c r="F344" t="s">
@@ -12808,7 +12807,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1906</v>
       </c>
@@ -12818,7 +12817,7 @@
       <c r="D345" t="s">
         <v>346</v>
       </c>
-      <c r="E345" s="1" t="s">
+      <c r="E345" t="s">
         <v>1101</v>
       </c>
       <c r="F345" t="s">
@@ -12830,11 +12829,11 @@
       <c r="H345" t="s">
         <v>1075</v>
       </c>
-      <c r="I345" s="1" t="s">
+      <c r="I345" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1906</v>
       </c>
@@ -12844,7 +12843,7 @@
       <c r="D346" t="s">
         <v>347</v>
       </c>
-      <c r="E346" s="1" t="s">
+      <c r="E346" t="s">
         <v>1101</v>
       </c>
       <c r="F346" t="s">
@@ -12860,7 +12859,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1906</v>
       </c>
@@ -12870,7 +12869,7 @@
       <c r="D347" t="s">
         <v>348</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="E347" t="s">
         <v>1101</v>
       </c>
       <c r="F347" t="s">
@@ -12882,11 +12881,11 @@
       <c r="H347" t="s">
         <v>1076</v>
       </c>
-      <c r="I347" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I347" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1906</v>
       </c>
@@ -12896,7 +12895,7 @@
       <c r="D348" t="s">
         <v>349</v>
       </c>
-      <c r="E348" s="1" t="s">
+      <c r="E348" t="s">
         <v>1101</v>
       </c>
       <c r="F348" t="s">
@@ -12908,11 +12907,11 @@
       <c r="H348" t="s">
         <v>1076</v>
       </c>
-      <c r="I348" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I348" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1906</v>
       </c>
@@ -12922,7 +12921,7 @@
       <c r="D349" t="s">
         <v>350</v>
       </c>
-      <c r="E349" s="1" t="s">
+      <c r="E349" t="s">
         <v>1101</v>
       </c>
       <c r="F349" t="s">
@@ -12934,11 +12933,11 @@
       <c r="H349" t="s">
         <v>1076</v>
       </c>
-      <c r="I349" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I349" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1906</v>
       </c>
@@ -12948,7 +12947,7 @@
       <c r="D350" t="s">
         <v>351</v>
       </c>
-      <c r="E350" s="1" t="s">
+      <c r="E350" t="s">
         <v>1101</v>
       </c>
       <c r="F350" t="s">
@@ -12960,11 +12959,11 @@
       <c r="H350" t="s">
         <v>1076</v>
       </c>
-      <c r="I350" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I350" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1906</v>
       </c>
@@ -12974,7 +12973,7 @@
       <c r="D351" t="s">
         <v>352</v>
       </c>
-      <c r="E351" s="1" t="s">
+      <c r="E351" t="s">
         <v>1101</v>
       </c>
       <c r="F351" t="s">
@@ -12984,13 +12983,13 @@
         <v>974</v>
       </c>
       <c r="H351" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I351" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I351" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1906</v>
       </c>
@@ -13000,7 +12999,7 @@
       <c r="D352" t="s">
         <v>353</v>
       </c>
-      <c r="E352" s="1" t="s">
+      <c r="E352" t="s">
         <v>1101</v>
       </c>
       <c r="F352" t="s">
@@ -13010,13 +13009,13 @@
         <v>975</v>
       </c>
       <c r="H352" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1906</v>
       </c>
@@ -13026,7 +13025,7 @@
       <c r="D353" t="s">
         <v>354</v>
       </c>
-      <c r="E353" s="1" t="s">
+      <c r="E353" t="s">
         <v>1101</v>
       </c>
       <c r="F353" t="s">
@@ -13036,13 +13035,13 @@
         <v>976</v>
       </c>
       <c r="H353" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I353" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I353" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1906</v>
       </c>
@@ -13052,7 +13051,7 @@
       <c r="D354" t="s">
         <v>355</v>
       </c>
-      <c r="E354" s="1" t="s">
+      <c r="E354" t="s">
         <v>1101</v>
       </c>
       <c r="F354" t="s">
@@ -13062,13 +13061,13 @@
         <v>977</v>
       </c>
       <c r="H354" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I354" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I354" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1906</v>
       </c>
@@ -13078,7 +13077,7 @@
       <c r="D355" t="s">
         <v>356</v>
       </c>
-      <c r="E355" s="1" t="s">
+      <c r="E355" t="s">
         <v>1101</v>
       </c>
       <c r="F355" t="s">
@@ -13088,13 +13087,13 @@
         <v>978</v>
       </c>
       <c r="H355" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I355" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I355" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1906</v>
       </c>
@@ -13104,20 +13103,20 @@
       <c r="D356" t="s">
         <v>357</v>
       </c>
-      <c r="E356" s="1" t="s">
+      <c r="E356" t="s">
         <v>1101</v>
       </c>
       <c r="F356" t="s">
         <v>731</v>
       </c>
       <c r="H356" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I356" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I356" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1906</v>
       </c>
@@ -13127,7 +13126,7 @@
       <c r="D357" t="s">
         <v>358</v>
       </c>
-      <c r="E357" s="1" t="s">
+      <c r="E357" t="s">
         <v>1101</v>
       </c>
       <c r="F357" t="s">
@@ -13137,13 +13136,13 @@
         <v>979</v>
       </c>
       <c r="H357" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I357" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I357" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1906</v>
       </c>
@@ -13153,7 +13152,7 @@
       <c r="D358" t="s">
         <v>359</v>
       </c>
-      <c r="E358" s="1" t="s">
+      <c r="E358" t="s">
         <v>1101</v>
       </c>
       <c r="F358" t="s">
@@ -13163,13 +13162,13 @@
         <v>855</v>
       </c>
       <c r="H358" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I358" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+      <c r="I358" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1906</v>
       </c>
@@ -13179,7 +13178,7 @@
       <c r="D359" t="s">
         <v>360</v>
       </c>
-      <c r="E359" s="1" t="s">
+      <c r="E359" t="s">
         <v>1101</v>
       </c>
       <c r="F359" t="s">
@@ -13191,11 +13190,11 @@
       <c r="H359" t="s">
         <v>1077</v>
       </c>
-      <c r="I359" s="1" t="s">
+      <c r="I359" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1906</v>
       </c>
@@ -13205,7 +13204,7 @@
       <c r="D360" t="s">
         <v>361</v>
       </c>
-      <c r="E360" s="1" t="s">
+      <c r="E360" t="s">
         <v>1101</v>
       </c>
       <c r="F360" t="s">
@@ -13221,7 +13220,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1906</v>
       </c>
@@ -13231,7 +13230,7 @@
       <c r="D361" t="s">
         <v>362</v>
       </c>
-      <c r="E361" s="1" t="s">
+      <c r="E361" t="s">
         <v>1101</v>
       </c>
       <c r="F361" t="s">
@@ -13243,13 +13242,11 @@
       <c r="H361" t="s">
         <v>1078</v>
       </c>
-      <c r="I361" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-    </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I361" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1906</v>
       </c>
@@ -13259,7 +13256,7 @@
       <c r="D362" t="s">
         <v>363</v>
       </c>
-      <c r="E362" s="1" t="s">
+      <c r="E362" t="s">
         <v>1101</v>
       </c>
       <c r="F362" t="s">
@@ -13271,18 +13268,17 @@
       <c r="H362" t="s">
         <v>1078</v>
       </c>
-      <c r="I362" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1" t="s">
+      <c r="I362" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K362" t="s">
         <v>1079</v>
       </c>
-      <c r="L362" s="1" t="s">
+      <c r="L362" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1906</v>
       </c>
@@ -13292,7 +13288,7 @@
       <c r="D363" t="s">
         <v>364</v>
       </c>
-      <c r="E363" s="1" t="s">
+      <c r="E363" t="s">
         <v>1101</v>
       </c>
       <c r="F363" t="s">
@@ -13301,20 +13297,20 @@
       <c r="G363" t="s">
         <v>983</v>
       </c>
-      <c r="H363" s="1" t="s">
+      <c r="H363" t="s">
         <v>1078</v>
       </c>
-      <c r="I363" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K363" s="1" t="s">
+      <c r="I363" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K363" t="s">
         <v>1079</v>
       </c>
-      <c r="L363" s="1" t="s">
+      <c r="L363" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1906</v>
       </c>
@@ -13324,7 +13320,7 @@
       <c r="D364" t="s">
         <v>365</v>
       </c>
-      <c r="E364" s="1" t="s">
+      <c r="E364" t="s">
         <v>1101</v>
       </c>
       <c r="F364" t="s">
@@ -13336,11 +13332,11 @@
       <c r="H364" t="s">
         <v>1079</v>
       </c>
-      <c r="I364" s="1" t="s">
+      <c r="I364" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1906</v>
       </c>
@@ -13350,7 +13346,7 @@
       <c r="D365" t="s">
         <v>366</v>
       </c>
-      <c r="E365" s="1" t="s">
+      <c r="E365" t="s">
         <v>1101</v>
       </c>
       <c r="F365" t="s">
@@ -13362,11 +13358,11 @@
       <c r="H365" t="s">
         <v>1079</v>
       </c>
-      <c r="I365" s="1" t="s">
+      <c r="I365" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1906</v>
       </c>
@@ -13376,7 +13372,7 @@
       <c r="D366" t="s">
         <v>367</v>
       </c>
-      <c r="E366" s="1" t="s">
+      <c r="E366" t="s">
         <v>1101</v>
       </c>
       <c r="F366" t="s">
@@ -13392,7 +13388,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1906</v>
       </c>
@@ -13402,7 +13398,7 @@
       <c r="D367" t="s">
         <v>368</v>
       </c>
-      <c r="E367" s="1" t="s">
+      <c r="E367" t="s">
         <v>1101</v>
       </c>
       <c r="F367" t="s">
@@ -13414,11 +13410,11 @@
       <c r="H367" t="s">
         <v>1080</v>
       </c>
-      <c r="I367" s="1" t="s">
+      <c r="I367" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1906</v>
       </c>
@@ -13428,7 +13424,7 @@
       <c r="D368" t="s">
         <v>369</v>
       </c>
-      <c r="E368" s="1" t="s">
+      <c r="E368" t="s">
         <v>1101</v>
       </c>
       <c r="F368" t="s">
@@ -13440,11 +13436,11 @@
       <c r="H368" t="s">
         <v>1080</v>
       </c>
-      <c r="I368" s="1" t="s">
+      <c r="I368" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1906</v>
       </c>
@@ -13454,7 +13450,7 @@
       <c r="D369" t="s">
         <v>370</v>
       </c>
-      <c r="E369" s="1" t="s">
+      <c r="E369" t="s">
         <v>1101</v>
       </c>
       <c r="F369" t="s">
@@ -13470,7 +13466,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1906</v>
       </c>
@@ -13480,7 +13476,7 @@
       <c r="D370" t="s">
         <v>371</v>
       </c>
-      <c r="E370" s="1" t="s">
+      <c r="E370" t="s">
         <v>1101</v>
       </c>
       <c r="F370" t="s">
@@ -13496,7 +13492,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1906</v>
       </c>
@@ -13506,7 +13502,7 @@
       <c r="D371" t="s">
         <v>372</v>
       </c>
-      <c r="E371" s="1" t="s">
+      <c r="E371" t="s">
         <v>1101</v>
       </c>
       <c r="F371" t="s">
@@ -13518,11 +13514,11 @@
       <c r="H371" t="s">
         <v>1014</v>
       </c>
-      <c r="I371" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I371" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1906</v>
       </c>
@@ -13532,7 +13528,7 @@
       <c r="D372" t="s">
         <v>373</v>
       </c>
-      <c r="E372" s="1" t="s">
+      <c r="E372" t="s">
         <v>1101</v>
       </c>
       <c r="F372" t="s">
@@ -13544,11 +13540,11 @@
       <c r="H372" t="s">
         <v>1014</v>
       </c>
-      <c r="I372" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I372" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1906</v>
       </c>
@@ -13558,7 +13554,7 @@
       <c r="D373" t="s">
         <v>374</v>
       </c>
-      <c r="E373" s="1" t="s">
+      <c r="E373" t="s">
         <v>1101</v>
       </c>
       <c r="F373" t="s">
@@ -13570,11 +13566,11 @@
       <c r="H373" t="s">
         <v>1014</v>
       </c>
-      <c r="I373" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I373" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1906</v>
       </c>
@@ -13584,7 +13580,7 @@
       <c r="D374" t="s">
         <v>375</v>
       </c>
-      <c r="E374" s="1" t="s">
+      <c r="E374" t="s">
         <v>1101</v>
       </c>
       <c r="F374" t="s">
@@ -13596,7 +13592,7 @@
       <c r="H374" t="s">
         <v>1014</v>
       </c>
-      <c r="I374" s="1" t="s">
+      <c r="I374" t="s">
         <v>1104</v>
       </c>
     </row>

--- a/data-migration/xlsx_1900-/1906_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1906_Sommer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6597DC-A901-4B6F-B163-7368E461BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97004351-E4B1-4CC5-8967-B58B9E914159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3098,9 +3098,6 @@
     <t>heuss_e</t>
   </si>
   <si>
-    <t>kroenlein_u</t>
-  </si>
-  <si>
     <t>schlatter_k</t>
   </si>
   <si>
@@ -3275,18 +3272,9 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3308,15 +3296,9 @@
     <t>hitzigsteiner_h</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>bernheim_j</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3374,9 +3356,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>wyss_o</t>
-  </si>
-  <si>
     <t>ernst_p</t>
   </si>
   <si>
@@ -3420,6 +3399,27 @@
   </si>
   <si>
     <t>escher_a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meyer-rueegg_h </t>
+  </si>
+  <si>
+    <t>kroenlein_ru</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>wyss-kienast_o</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3459,7 +3459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3763,11 +3763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="I252" sqref="I252"/>
+    <sheetView tabSelected="1" topLeftCell="G81" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="36.109375" customWidth="1"/>
     <col min="6" max="6" width="51.33203125" customWidth="1"/>
@@ -3787,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F1" t="s">
         <v>376</v>
@@ -3799,7 +3799,7 @@
         <v>989</v>
       </c>
       <c r="I1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F2" t="s">
         <v>377</v>
@@ -3825,7 +3825,7 @@
         <v>990</v>
       </c>
       <c r="I2" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F3" t="s">
         <v>378</v>
@@ -3851,7 +3851,7 @@
         <v>991</v>
       </c>
       <c r="I3" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3865,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F4" t="s">
         <v>379</v>
@@ -3877,7 +3877,7 @@
         <v>991</v>
       </c>
       <c r="I4" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3891,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F5" t="s">
         <v>380</v>
@@ -3900,10 +3900,10 @@
         <v>754</v>
       </c>
       <c r="H5" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="I5" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3917,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F6" t="s">
         <v>381</v>
@@ -3929,7 +3929,7 @@
         <v>992</v>
       </c>
       <c r="I6" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3943,7 +3943,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F7" t="s">
         <v>382</v>
@@ -3955,7 +3955,7 @@
         <v>992</v>
       </c>
       <c r="I7" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3969,7 +3969,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F8" t="s">
         <v>383</v>
@@ -3981,7 +3981,7 @@
         <v>992</v>
       </c>
       <c r="I8" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3995,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F9" t="s">
         <v>384</v>
@@ -4007,7 +4007,7 @@
         <v>993</v>
       </c>
       <c r="I9" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4021,7 +4021,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F10" t="s">
         <v>385</v>
@@ -4030,13 +4030,13 @@
         <v>758</v>
       </c>
       <c r="H10" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="I10" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J10" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4050,7 +4050,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F11" t="s">
         <v>386</v>
@@ -4059,13 +4059,13 @@
         <v>759</v>
       </c>
       <c r="H11" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="I11" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J11" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F12" t="s">
         <v>387</v>
@@ -4088,13 +4088,13 @@
         <v>760</v>
       </c>
       <c r="H12" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="I12" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J12" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4108,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F13" t="s">
         <v>388</v>
@@ -4120,7 +4120,7 @@
         <v>990</v>
       </c>
       <c r="I13" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F14" t="s">
         <v>389</v>
@@ -4143,10 +4143,10 @@
         <v>762</v>
       </c>
       <c r="H14" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="I14" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4160,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F15" t="s">
         <v>390</v>
@@ -4169,10 +4169,10 @@
         <v>763</v>
       </c>
       <c r="H15" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="I15" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4186,7 +4186,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F16" t="s">
         <v>391</v>
@@ -4198,7 +4198,7 @@
         <v>990</v>
       </c>
       <c r="I16" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -4212,7 +4212,7 @@
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F17" t="s">
         <v>392</v>
@@ -4224,7 +4224,7 @@
         <v>990</v>
       </c>
       <c r="I17" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F18" t="s">
         <v>393</v>
@@ -4247,10 +4247,10 @@
         <v>764</v>
       </c>
       <c r="H18" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="I18" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -4264,7 +4264,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F19" t="s">
         <v>394</v>
@@ -4276,7 +4276,7 @@
         <v>990</v>
       </c>
       <c r="I19" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,7 +4290,7 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F20" t="s">
         <v>395</v>
@@ -4302,7 +4302,7 @@
         <v>991</v>
       </c>
       <c r="I20" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -4316,7 +4316,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F21" t="s">
         <v>396</v>
@@ -4328,7 +4328,7 @@
         <v>992</v>
       </c>
       <c r="I21" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F22" t="s">
         <v>397</v>
@@ -4351,10 +4351,10 @@
         <v>767</v>
       </c>
       <c r="H22" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="I22" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F23" t="s">
         <v>398</v>
@@ -4377,10 +4377,10 @@
         <v>767</v>
       </c>
       <c r="H23" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="I23" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -4394,7 +4394,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F24" t="s">
         <v>399</v>
@@ -4403,10 +4403,10 @@
         <v>768</v>
       </c>
       <c r="H24" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="I24" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -4420,7 +4420,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F25" t="s">
         <v>400</v>
@@ -4432,7 +4432,7 @@
         <v>990</v>
       </c>
       <c r="I25" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4446,7 +4446,7 @@
         <v>27</v>
       </c>
       <c r="E26" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F26" t="s">
         <v>401</v>
@@ -4455,10 +4455,10 @@
         <v>769</v>
       </c>
       <c r="H26" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="I26" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -4472,7 +4472,7 @@
         <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F27" t="s">
         <v>402</v>
@@ -4484,7 +4484,7 @@
         <v>995</v>
       </c>
       <c r="I27" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -4498,7 +4498,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F28" t="s">
         <v>403</v>
@@ -4507,10 +4507,10 @@
         <v>771</v>
       </c>
       <c r="H28" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="I28" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F29" t="s">
         <v>404</v>
@@ -4533,10 +4533,10 @@
         <v>772</v>
       </c>
       <c r="H29" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="I29" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -4550,7 +4550,7 @@
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F30" t="s">
         <v>405</v>
@@ -4562,7 +4562,7 @@
         <v>996</v>
       </c>
       <c r="I30" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F31" t="s">
         <v>406</v>
@@ -4588,7 +4588,7 @@
         <v>996</v>
       </c>
       <c r="I31" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -4602,7 +4602,7 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F32" t="s">
         <v>407</v>
@@ -4614,7 +4614,7 @@
         <v>996</v>
       </c>
       <c r="I32" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F33" t="s">
         <v>408</v>
@@ -4640,7 +4640,7 @@
         <v>996</v>
       </c>
       <c r="I33" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F34" t="s">
         <v>409</v>
@@ -4666,7 +4666,7 @@
         <v>997</v>
       </c>
       <c r="I34" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -4680,7 +4680,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F35" t="s">
         <v>410</v>
@@ -4692,7 +4692,7 @@
         <v>997</v>
       </c>
       <c r="I35" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4706,7 +4706,7 @@
         <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F36" t="s">
         <v>411</v>
@@ -4718,7 +4718,7 @@
         <v>998</v>
       </c>
       <c r="I36" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -4732,7 +4732,7 @@
         <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F37" t="s">
         <v>412</v>
@@ -4744,7 +4744,7 @@
         <v>998</v>
       </c>
       <c r="I37" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -4758,7 +4758,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F38" t="s">
         <v>413</v>
@@ -4770,7 +4770,7 @@
         <v>998</v>
       </c>
       <c r="I38" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -4784,7 +4784,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F39" t="s">
         <v>414</v>
@@ -4793,10 +4793,10 @@
         <v>781</v>
       </c>
       <c r="H39" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="I39" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -4810,7 +4810,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F40" t="s">
         <v>415</v>
@@ -4822,7 +4822,7 @@
         <v>999</v>
       </c>
       <c r="I40" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -4836,7 +4836,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F41" t="s">
         <v>416</v>
@@ -4848,7 +4848,7 @@
         <v>1000</v>
       </c>
       <c r="I41" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4862,7 +4862,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F42" t="s">
         <v>417</v>
@@ -4874,7 +4874,7 @@
         <v>1001</v>
       </c>
       <c r="I42" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -4888,7 +4888,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F43" t="s">
         <v>418</v>
@@ -4900,7 +4900,7 @@
         <v>995</v>
       </c>
       <c r="I43" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -4914,7 +4914,7 @@
         <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F44" t="s">
         <v>419</v>
@@ -4926,7 +4926,7 @@
         <v>995</v>
       </c>
       <c r="I44" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -4940,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F45" t="s">
         <v>420</v>
@@ -4952,7 +4952,7 @@
         <v>1001</v>
       </c>
       <c r="I45" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -4966,7 +4966,7 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F46" t="s">
         <v>421</v>
@@ -4978,7 +4978,7 @@
         <v>1001</v>
       </c>
       <c r="I46" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -4992,7 +4992,7 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F47" t="s">
         <v>422</v>
@@ -5001,13 +5001,13 @@
         <v>789</v>
       </c>
       <c r="H47" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="I47" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="J47" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5021,7 +5021,7 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F48" t="s">
         <v>423</v>
@@ -5033,7 +5033,7 @@
         <v>1002</v>
       </c>
       <c r="I48" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5047,7 +5047,7 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F49" t="s">
         <v>424</v>
@@ -5059,7 +5059,7 @@
         <v>1002</v>
       </c>
       <c r="I49" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5073,7 +5073,7 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F50" t="s">
         <v>425</v>
@@ -5082,13 +5082,13 @@
         <v>792</v>
       </c>
       <c r="H50" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="I50" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="J50" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5102,7 +5102,7 @@
         <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F51" t="s">
         <v>426</v>
@@ -5114,7 +5114,7 @@
         <v>1003</v>
       </c>
       <c r="I51" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5128,7 +5128,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F52" t="s">
         <v>427</v>
@@ -5140,7 +5140,7 @@
         <v>1003</v>
       </c>
       <c r="I52" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5154,7 +5154,7 @@
         <v>54</v>
       </c>
       <c r="E53" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F53" t="s">
         <v>428</v>
@@ -5166,7 +5166,7 @@
         <v>1004</v>
       </c>
       <c r="I53" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5180,7 +5180,7 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F54" t="s">
         <v>429</v>
@@ -5192,7 +5192,7 @@
         <v>1004</v>
       </c>
       <c r="I54" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5206,7 +5206,7 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F55" t="s">
         <v>430</v>
@@ -5215,10 +5215,10 @@
         <v>797</v>
       </c>
       <c r="H55" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I55" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5232,7 +5232,7 @@
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F56" t="s">
         <v>431</v>
@@ -5241,10 +5241,10 @@
         <v>798</v>
       </c>
       <c r="H56" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I56" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5258,7 +5258,7 @@
         <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F57" t="s">
         <v>432</v>
@@ -5267,10 +5267,10 @@
         <v>799</v>
       </c>
       <c r="H57" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I57" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5284,7 +5284,7 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F58" t="s">
         <v>433</v>
@@ -5293,10 +5293,10 @@
         <v>800</v>
       </c>
       <c r="H58" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I58" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5310,7 +5310,7 @@
         <v>60</v>
       </c>
       <c r="E59" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F59" t="s">
         <v>434</v>
@@ -5322,7 +5322,7 @@
         <v>995</v>
       </c>
       <c r="I59" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5336,7 +5336,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F60" t="s">
         <v>435</v>
@@ -5345,10 +5345,10 @@
         <v>802</v>
       </c>
       <c r="H60" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="I60" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5362,7 +5362,7 @@
         <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F61" t="s">
         <v>436</v>
@@ -5371,10 +5371,10 @@
         <v>803</v>
       </c>
       <c r="H61" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="I61" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5388,7 +5388,7 @@
         <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F62" t="s">
         <v>437</v>
@@ -5400,7 +5400,7 @@
         <v>996</v>
       </c>
       <c r="I62" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5414,7 +5414,7 @@
         <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F63" t="s">
         <v>438</v>
@@ -5426,7 +5426,7 @@
         <v>997</v>
       </c>
       <c r="I63" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5440,7 +5440,7 @@
         <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F64" t="s">
         <v>439</v>
@@ -5452,7 +5452,7 @@
         <v>998</v>
       </c>
       <c r="I64" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5466,7 +5466,7 @@
         <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F65" t="s">
         <v>440</v>
@@ -5478,7 +5478,7 @@
         <v>998</v>
       </c>
       <c r="I65" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5492,7 +5492,7 @@
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F66" t="s">
         <v>441</v>
@@ -5504,7 +5504,7 @@
         <v>1001</v>
       </c>
       <c r="I66" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5518,7 +5518,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F67" t="s">
         <v>442</v>
@@ -5527,13 +5527,13 @@
         <v>808</v>
       </c>
       <c r="H67" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="I67" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="J67" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5547,7 +5547,7 @@
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F68" t="s">
         <v>443</v>
@@ -5559,7 +5559,7 @@
         <v>1002</v>
       </c>
       <c r="I68" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5573,7 +5573,7 @@
         <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F69" t="s">
         <v>444</v>
@@ -5585,7 +5585,7 @@
         <v>1003</v>
       </c>
       <c r="I69" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -5599,7 +5599,7 @@
         <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F70" t="s">
         <v>445</v>
@@ -5608,10 +5608,10 @@
         <v>811</v>
       </c>
       <c r="H70" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I70" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -5625,7 +5625,7 @@
         <v>72</v>
       </c>
       <c r="E71" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F71" t="s">
         <v>446</v>
@@ -5634,10 +5634,10 @@
         <v>812</v>
       </c>
       <c r="H71" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I71" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5651,7 +5651,7 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F72" t="s">
         <v>447</v>
@@ -5660,10 +5660,10 @@
         <v>813</v>
       </c>
       <c r="H72" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="I72" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5677,7 +5677,7 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F73" t="s">
         <v>448</v>
@@ -5697,7 +5697,7 @@
         <v>75</v>
       </c>
       <c r="E74" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F74" t="s">
         <v>449</v>
@@ -5709,7 +5709,7 @@
         <v>1005</v>
       </c>
       <c r="I74" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -5723,7 +5723,7 @@
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F75" t="s">
         <v>450</v>
@@ -5735,13 +5735,13 @@
         <v>1005</v>
       </c>
       <c r="I75" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="K75" t="s">
         <v>1006</v>
       </c>
       <c r="L75" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5755,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F76" t="s">
         <v>451</v>
@@ -5767,7 +5767,7 @@
         <v>1005</v>
       </c>
       <c r="I76" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F77" t="s">
         <v>452</v>
@@ -5793,13 +5793,13 @@
         <v>1005</v>
       </c>
       <c r="I77" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="K77" t="s">
         <v>1006</v>
       </c>
       <c r="L77" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F78" t="s">
         <v>453</v>
@@ -5825,7 +5825,7 @@
         <v>1005</v>
       </c>
       <c r="I78" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -5839,7 +5839,7 @@
         <v>80</v>
       </c>
       <c r="E79" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F79" t="s">
         <v>454</v>
@@ -5851,7 +5851,7 @@
         <v>1006</v>
       </c>
       <c r="I79" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -5865,7 +5865,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F80" t="s">
         <v>455</v>
@@ -5877,7 +5877,7 @@
         <v>1006</v>
       </c>
       <c r="I80" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5891,7 +5891,7 @@
         <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F81" t="s">
         <v>456</v>
@@ -5903,7 +5903,7 @@
         <v>1006</v>
       </c>
       <c r="I81" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5917,7 +5917,7 @@
         <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F82" t="s">
         <v>457</v>
@@ -5926,10 +5926,10 @@
         <v>823</v>
       </c>
       <c r="H82" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="I82" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5943,7 +5943,7 @@
         <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F83" t="s">
         <v>458</v>
@@ -5952,10 +5952,10 @@
         <v>824</v>
       </c>
       <c r="H83" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="I83" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5969,7 +5969,7 @@
         <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F84" t="s">
         <v>459</v>
@@ -5978,10 +5978,10 @@
         <v>825</v>
       </c>
       <c r="H84" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="I84" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5995,7 +5995,7 @@
         <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F85" t="s">
         <v>460</v>
@@ -6007,7 +6007,7 @@
         <v>1007</v>
       </c>
       <c r="I85" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -6021,7 +6021,7 @@
         <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F86" t="s">
         <v>461</v>
@@ -6033,7 +6033,7 @@
         <v>1008</v>
       </c>
       <c r="I86" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -6047,7 +6047,7 @@
         <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F87" t="s">
         <v>462</v>
@@ -6059,7 +6059,7 @@
         <v>1008</v>
       </c>
       <c r="I87" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -6073,7 +6073,7 @@
         <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F88" t="s">
         <v>463</v>
@@ -6085,7 +6085,7 @@
         <v>1008</v>
       </c>
       <c r="I88" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -6099,7 +6099,7 @@
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F89" t="s">
         <v>464</v>
@@ -6111,7 +6111,7 @@
         <v>1008</v>
       </c>
       <c r="I89" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -6125,7 +6125,7 @@
         <v>91</v>
       </c>
       <c r="E90" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F90" t="s">
         <v>465</v>
@@ -6137,7 +6137,7 @@
         <v>1009</v>
       </c>
       <c r="I90" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -6151,7 +6151,7 @@
         <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F91" t="s">
         <v>466</v>
@@ -6163,7 +6163,7 @@
         <v>1009</v>
       </c>
       <c r="I91" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -6177,7 +6177,7 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F92" t="s">
         <v>467</v>
@@ -6189,7 +6189,7 @@
         <v>1009</v>
       </c>
       <c r="I92" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -6203,7 +6203,7 @@
         <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F93" t="s">
         <v>468</v>
@@ -6215,7 +6215,7 @@
         <v>1010</v>
       </c>
       <c r="I93" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -6229,7 +6229,7 @@
         <v>95</v>
       </c>
       <c r="E94" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F94" t="s">
         <v>469</v>
@@ -6238,10 +6238,10 @@
         <v>760</v>
       </c>
       <c r="H94" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="I94" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -6255,7 +6255,7 @@
         <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F95" t="s">
         <v>470</v>
@@ -6264,10 +6264,10 @@
         <v>831</v>
       </c>
       <c r="H95" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I95" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -6281,7 +6281,7 @@
         <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F96" t="s">
         <v>471</v>
@@ -6290,10 +6290,10 @@
         <v>832</v>
       </c>
       <c r="H96" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I96" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -6307,7 +6307,7 @@
         <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F97" t="s">
         <v>472</v>
@@ -6316,10 +6316,10 @@
         <v>833</v>
       </c>
       <c r="H97" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="I97" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -6333,7 +6333,7 @@
         <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F98" t="s">
         <v>473</v>
@@ -6342,10 +6342,10 @@
         <v>834</v>
       </c>
       <c r="H98" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="I98" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -6359,7 +6359,7 @@
         <v>100</v>
       </c>
       <c r="E99" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F99" t="s">
         <v>474</v>
@@ -6368,10 +6368,10 @@
         <v>751</v>
       </c>
       <c r="H99" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="I99" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -6385,7 +6385,7 @@
         <v>101</v>
       </c>
       <c r="E100" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F100" t="s">
         <v>475</v>
@@ -6394,10 +6394,10 @@
         <v>751</v>
       </c>
       <c r="H100" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="I100" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -6411,22 +6411,22 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F101" t="s">
         <v>476</v>
       </c>
       <c r="H101" t="s">
-        <v>1091</v>
+        <v>1128</v>
       </c>
       <c r="I101" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="K101" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="L101" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -6440,7 +6440,7 @@
         <v>103</v>
       </c>
       <c r="E102" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F102" t="s">
         <v>477</v>
@@ -6449,10 +6449,10 @@
         <v>835</v>
       </c>
       <c r="H102" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I102" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -6466,7 +6466,7 @@
         <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F103" t="s">
         <v>478</v>
@@ -6475,10 +6475,10 @@
         <v>827</v>
       </c>
       <c r="H103" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I103" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -6492,7 +6492,7 @@
         <v>105</v>
       </c>
       <c r="E104" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F104" t="s">
         <v>479</v>
@@ -6501,10 +6501,10 @@
         <v>836</v>
       </c>
       <c r="H104" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I104" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -6518,7 +6518,7 @@
         <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F105" t="s">
         <v>480</v>
@@ -6527,10 +6527,10 @@
         <v>837</v>
       </c>
       <c r="H105" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I105" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -6544,7 +6544,7 @@
         <v>107</v>
       </c>
       <c r="E106" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F106" t="s">
         <v>481</v>
@@ -6553,10 +6553,10 @@
         <v>819</v>
       </c>
       <c r="H106" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="I106" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -6570,7 +6570,7 @@
         <v>108</v>
       </c>
       <c r="E107" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F107" t="s">
         <v>482</v>
@@ -6579,10 +6579,10 @@
         <v>794</v>
       </c>
       <c r="H107" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I107" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -6596,7 +6596,7 @@
         <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F108" t="s">
         <v>483</v>
@@ -6605,10 +6605,10 @@
         <v>838</v>
       </c>
       <c r="H108" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I108" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -6622,7 +6622,7 @@
         <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F109" t="s">
         <v>484</v>
@@ -6634,7 +6634,7 @@
         <v>1011</v>
       </c>
       <c r="I109" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -6648,7 +6648,7 @@
         <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F110" t="s">
         <v>485</v>
@@ -6660,7 +6660,7 @@
         <v>1012</v>
       </c>
       <c r="I110" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -6674,7 +6674,7 @@
         <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F111" t="s">
         <v>486</v>
@@ -6686,7 +6686,7 @@
         <v>1012</v>
       </c>
       <c r="I111" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -6700,7 +6700,7 @@
         <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F112" t="s">
         <v>487</v>
@@ -6712,7 +6712,7 @@
         <v>1012</v>
       </c>
       <c r="I112" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -6726,7 +6726,7 @@
         <v>114</v>
       </c>
       <c r="E113" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F113" t="s">
         <v>488</v>
@@ -6738,7 +6738,7 @@
         <v>1012</v>
       </c>
       <c r="I113" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -6752,7 +6752,7 @@
         <v>115</v>
       </c>
       <c r="E114" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F114" t="s">
         <v>489</v>
@@ -6764,7 +6764,7 @@
         <v>1013</v>
       </c>
       <c r="I114" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -6778,7 +6778,7 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F115" t="s">
         <v>490</v>
@@ -6787,10 +6787,10 @@
         <v>751</v>
       </c>
       <c r="H115" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="I115" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -6804,7 +6804,7 @@
         <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F116" t="s">
         <v>491</v>
@@ -6813,10 +6813,10 @@
         <v>843</v>
       </c>
       <c r="H116" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="I116" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -6830,7 +6830,7 @@
         <v>118</v>
       </c>
       <c r="E117" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F117" t="s">
         <v>492</v>
@@ -6839,10 +6839,10 @@
         <v>751</v>
       </c>
       <c r="H117" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="I117" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -6856,7 +6856,7 @@
         <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F118" t="s">
         <v>493</v>
@@ -6868,7 +6868,7 @@
         <v>1015</v>
       </c>
       <c r="I118" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -6882,7 +6882,7 @@
         <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F119" t="s">
         <v>494</v>
@@ -6894,7 +6894,7 @@
         <v>1015</v>
       </c>
       <c r="I119" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -6908,7 +6908,7 @@
         <v>121</v>
       </c>
       <c r="E120" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F120" t="s">
         <v>495</v>
@@ -6920,7 +6920,7 @@
         <v>1016</v>
       </c>
       <c r="I120" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -6934,7 +6934,7 @@
         <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F121" t="s">
         <v>496</v>
@@ -6946,7 +6946,7 @@
         <v>1016</v>
       </c>
       <c r="I121" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -6960,7 +6960,7 @@
         <v>123</v>
       </c>
       <c r="E122" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F122" t="s">
         <v>497</v>
@@ -6969,10 +6969,10 @@
         <v>845</v>
       </c>
       <c r="H122" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="I122" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -6986,7 +6986,7 @@
         <v>124</v>
       </c>
       <c r="E123" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F123" t="s">
         <v>498</v>
@@ -6998,7 +6998,7 @@
         <v>1017</v>
       </c>
       <c r="I123" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7012,7 +7012,7 @@
         <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F124" t="s">
         <v>499</v>
@@ -7024,7 +7024,7 @@
         <v>1017</v>
       </c>
       <c r="I124" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7038,7 +7038,7 @@
         <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F125" t="s">
         <v>500</v>
@@ -7050,7 +7050,7 @@
         <v>1017</v>
       </c>
       <c r="I125" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7064,7 +7064,7 @@
         <v>127</v>
       </c>
       <c r="E126" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F126" t="s">
         <v>501</v>
@@ -7073,10 +7073,10 @@
         <v>760</v>
       </c>
       <c r="H126" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="I126" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7090,7 +7090,7 @@
         <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F127" t="s">
         <v>502</v>
@@ -7102,7 +7102,7 @@
         <v>1018</v>
       </c>
       <c r="I127" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7116,7 +7116,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F128" t="s">
         <v>503</v>
@@ -7128,7 +7128,7 @@
         <v>1018</v>
       </c>
       <c r="I128" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7142,7 +7142,7 @@
         <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F129" t="s">
         <v>504</v>
@@ -7154,7 +7154,7 @@
         <v>1019</v>
       </c>
       <c r="I129" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7168,7 +7168,7 @@
         <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F130" t="s">
         <v>505</v>
@@ -7180,7 +7180,7 @@
         <v>1019</v>
       </c>
       <c r="I130" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7194,7 +7194,7 @@
         <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F131" t="s">
         <v>506</v>
@@ -7206,7 +7206,7 @@
         <v>1020</v>
       </c>
       <c r="I131" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7220,7 +7220,7 @@
         <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F132" t="s">
         <v>507</v>
@@ -7229,10 +7229,10 @@
         <v>849</v>
       </c>
       <c r="H132" t="s">
-        <v>1021</v>
+        <v>1123</v>
       </c>
       <c r="I132" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7246,7 +7246,7 @@
         <v>134</v>
       </c>
       <c r="E133" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F133" t="s">
         <v>508</v>
@@ -7255,10 +7255,10 @@
         <v>850</v>
       </c>
       <c r="H133" t="s">
-        <v>1021</v>
+        <v>1123</v>
       </c>
       <c r="I133" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7272,7 +7272,7 @@
         <v>135</v>
       </c>
       <c r="E134" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F134" t="s">
         <v>509</v>
@@ -7281,10 +7281,10 @@
         <v>851</v>
       </c>
       <c r="H134" t="s">
-        <v>1021</v>
+        <v>1123</v>
       </c>
       <c r="I134" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7298,7 +7298,7 @@
         <v>136</v>
       </c>
       <c r="E135" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F135" t="s">
         <v>510</v>
@@ -7307,10 +7307,10 @@
         <v>852</v>
       </c>
       <c r="H135" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I135" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7324,7 +7324,7 @@
         <v>137</v>
       </c>
       <c r="E136" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F136" t="s">
         <v>511</v>
@@ -7333,10 +7333,10 @@
         <v>853</v>
       </c>
       <c r="H136" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I136" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7350,7 +7350,7 @@
         <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F137" t="s">
         <v>512</v>
@@ -7359,10 +7359,10 @@
         <v>854</v>
       </c>
       <c r="H137" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I137" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7376,7 +7376,7 @@
         <v>139</v>
       </c>
       <c r="E138" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F138" t="s">
         <v>513</v>
@@ -7385,10 +7385,10 @@
         <v>760</v>
       </c>
       <c r="H138" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I138" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7402,7 +7402,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F139" t="s">
         <v>514</v>
@@ -7411,10 +7411,10 @@
         <v>855</v>
       </c>
       <c r="H139" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I139" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7428,7 +7428,7 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F140" t="s">
         <v>515</v>
@@ -7437,10 +7437,10 @@
         <v>760</v>
       </c>
       <c r="H140" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I140" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7454,7 +7454,7 @@
         <v>142</v>
       </c>
       <c r="E141" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F141" t="s">
         <v>516</v>
@@ -7463,10 +7463,10 @@
         <v>760</v>
       </c>
       <c r="H141" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I141" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F142" t="s">
         <v>517</v>
@@ -7489,10 +7489,10 @@
         <v>856</v>
       </c>
       <c r="H142" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I142" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7506,7 +7506,7 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F143" t="s">
         <v>518</v>
@@ -7515,10 +7515,10 @@
         <v>857</v>
       </c>
       <c r="H143" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I143" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7532,7 +7532,7 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F144" t="s">
         <v>519</v>
@@ -7541,10 +7541,10 @@
         <v>858</v>
       </c>
       <c r="H144" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="I144" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7558,7 +7558,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F145" t="s">
         <v>520</v>
@@ -7567,10 +7567,10 @@
         <v>760</v>
       </c>
       <c r="H145" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="I145" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7584,7 +7584,7 @@
         <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F146" t="s">
         <v>521</v>
@@ -7593,10 +7593,10 @@
         <v>859</v>
       </c>
       <c r="H146" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="I146" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7610,7 +7610,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F147" t="s">
         <v>522</v>
@@ -7619,10 +7619,10 @@
         <v>760</v>
       </c>
       <c r="H147" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="I147" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7636,7 +7636,7 @@
         <v>149</v>
       </c>
       <c r="E148" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F148" t="s">
         <v>523</v>
@@ -7645,10 +7645,10 @@
         <v>860</v>
       </c>
       <c r="H148" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I148" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7662,7 +7662,7 @@
         <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F149" t="s">
         <v>524</v>
@@ -7671,10 +7671,10 @@
         <v>861</v>
       </c>
       <c r="H149" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I149" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7688,7 +7688,7 @@
         <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F150" t="s">
         <v>525</v>
@@ -7697,10 +7697,10 @@
         <v>767</v>
       </c>
       <c r="H150" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I150" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7714,7 +7714,7 @@
         <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F151" t="s">
         <v>526</v>
@@ -7723,10 +7723,10 @@
         <v>862</v>
       </c>
       <c r="H151" t="s">
-        <v>1093</v>
+        <v>1122</v>
       </c>
       <c r="I151" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7740,7 +7740,7 @@
         <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F152" t="s">
         <v>527</v>
@@ -7749,10 +7749,10 @@
         <v>751</v>
       </c>
       <c r="H152" t="s">
-        <v>1093</v>
+        <v>1122</v>
       </c>
       <c r="I152" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7766,7 +7766,7 @@
         <v>154</v>
       </c>
       <c r="E153" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F153" t="s">
         <v>528</v>
@@ -7775,10 +7775,10 @@
         <v>863</v>
       </c>
       <c r="H153" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="I153" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7792,7 +7792,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F154" t="s">
         <v>529</v>
@@ -7801,10 +7801,10 @@
         <v>864</v>
       </c>
       <c r="H154" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I154" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7818,7 +7818,7 @@
         <v>156</v>
       </c>
       <c r="E155" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F155" t="s">
         <v>530</v>
@@ -7827,10 +7827,10 @@
         <v>751</v>
       </c>
       <c r="H155" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I155" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7844,7 +7844,7 @@
         <v>157</v>
       </c>
       <c r="E156" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F156" t="s">
         <v>531</v>
@@ -7853,10 +7853,10 @@
         <v>865</v>
       </c>
       <c r="H156" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I156" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7870,7 +7870,7 @@
         <v>158</v>
       </c>
       <c r="E157" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F157" t="s">
         <v>532</v>
@@ -7879,10 +7879,10 @@
         <v>750</v>
       </c>
       <c r="H157" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I157" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7896,7 +7896,7 @@
         <v>159</v>
       </c>
       <c r="E158" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F158" t="s">
         <v>533</v>
@@ -7905,10 +7905,10 @@
         <v>854</v>
       </c>
       <c r="H158" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I158" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7922,7 +7922,7 @@
         <v>160</v>
       </c>
       <c r="E159" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F159" t="s">
         <v>534</v>
@@ -7931,10 +7931,10 @@
         <v>866</v>
       </c>
       <c r="H159" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I159" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -7948,7 +7948,7 @@
         <v>161</v>
       </c>
       <c r="E160" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F160" t="s">
         <v>535</v>
@@ -7957,10 +7957,10 @@
         <v>867</v>
       </c>
       <c r="H160" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I160" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7974,7 +7974,7 @@
         <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F161" t="s">
         <v>536</v>
@@ -7983,10 +7983,10 @@
         <v>865</v>
       </c>
       <c r="H161" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I161" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>163</v>
       </c>
       <c r="E162" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F162" t="s">
         <v>537</v>
@@ -8009,10 +8009,10 @@
         <v>760</v>
       </c>
       <c r="H162" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="I162" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8026,7 +8026,7 @@
         <v>164</v>
       </c>
       <c r="E163" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F163" t="s">
         <v>538</v>
@@ -8035,10 +8035,10 @@
         <v>751</v>
       </c>
       <c r="H163" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="I163" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8052,7 +8052,7 @@
         <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F164" t="s">
         <v>539</v>
@@ -8061,10 +8061,10 @@
         <v>868</v>
       </c>
       <c r="H164" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I164" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8078,7 +8078,7 @@
         <v>166</v>
       </c>
       <c r="E165" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F165" t="s">
         <v>540</v>
@@ -8087,10 +8087,10 @@
         <v>869</v>
       </c>
       <c r="H165" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="I165" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8104,7 +8104,7 @@
         <v>167</v>
       </c>
       <c r="E166" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F166" t="s">
         <v>541</v>
@@ -8113,10 +8113,10 @@
         <v>782</v>
       </c>
       <c r="H166" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I166" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8130,7 +8130,7 @@
         <v>168</v>
       </c>
       <c r="E167" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F167" t="s">
         <v>542</v>
@@ -8139,10 +8139,10 @@
         <v>870</v>
       </c>
       <c r="H167" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I167" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8156,7 +8156,7 @@
         <v>169</v>
       </c>
       <c r="E168" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F168" t="s">
         <v>543</v>
@@ -8165,10 +8165,10 @@
         <v>871</v>
       </c>
       <c r="H168" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I168" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8182,7 +8182,7 @@
         <v>170</v>
       </c>
       <c r="E169" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F169" t="s">
         <v>544</v>
@@ -8191,10 +8191,10 @@
         <v>872</v>
       </c>
       <c r="H169" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I169" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8208,7 +8208,7 @@
         <v>171</v>
       </c>
       <c r="E170" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F170" t="s">
         <v>545</v>
@@ -8217,10 +8217,10 @@
         <v>873</v>
       </c>
       <c r="H170" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="I170" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8234,7 +8234,7 @@
         <v>172</v>
       </c>
       <c r="E171" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F171" t="s">
         <v>546</v>
@@ -8243,10 +8243,10 @@
         <v>874</v>
       </c>
       <c r="H171" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="I171" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8260,7 +8260,7 @@
         <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F172" t="s">
         <v>547</v>
@@ -8269,10 +8269,10 @@
         <v>875</v>
       </c>
       <c r="H172" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I172" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8286,7 +8286,7 @@
         <v>174</v>
       </c>
       <c r="E173" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F173" t="s">
         <v>548</v>
@@ -8295,10 +8295,10 @@
         <v>823</v>
       </c>
       <c r="H173" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I173" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8312,7 +8312,7 @@
         <v>175</v>
       </c>
       <c r="E174" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F174" t="s">
         <v>549</v>
@@ -8321,10 +8321,10 @@
         <v>876</v>
       </c>
       <c r="H174" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I174" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8338,7 +8338,7 @@
         <v>176</v>
       </c>
       <c r="E175" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F175" t="s">
         <v>550</v>
@@ -8358,7 +8358,7 @@
         <v>177</v>
       </c>
       <c r="E176" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F176" t="s">
         <v>551</v>
@@ -8378,7 +8378,7 @@
         <v>178</v>
       </c>
       <c r="E177" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F177" t="s">
         <v>552</v>
@@ -8398,7 +8398,7 @@
         <v>179</v>
       </c>
       <c r="E178" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F178" t="s">
         <v>553</v>
@@ -8407,13 +8407,13 @@
         <v>880</v>
       </c>
       <c r="H178" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I178" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J178" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8427,7 +8427,7 @@
         <v>180</v>
       </c>
       <c r="E179" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F179" t="s">
         <v>554</v>
@@ -8436,13 +8436,13 @@
         <v>881</v>
       </c>
       <c r="H179" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I179" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J179" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8456,7 +8456,7 @@
         <v>181</v>
       </c>
       <c r="E180" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F180" t="s">
         <v>555</v>
@@ -8465,13 +8465,13 @@
         <v>882</v>
       </c>
       <c r="H180" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I180" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J180" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8485,7 +8485,7 @@
         <v>182</v>
       </c>
       <c r="E181" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F181" t="s">
         <v>556</v>
@@ -8494,13 +8494,13 @@
         <v>883</v>
       </c>
       <c r="H181" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I181" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J181" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8514,7 +8514,7 @@
         <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F182" t="s">
         <v>557</v>
@@ -8523,13 +8523,13 @@
         <v>884</v>
       </c>
       <c r="H182" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I182" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J182" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -8543,7 +8543,7 @@
         <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F183" t="s">
         <v>558</v>
@@ -8552,10 +8552,10 @@
         <v>885</v>
       </c>
       <c r="H183" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I183" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -8569,7 +8569,7 @@
         <v>185</v>
       </c>
       <c r="E184" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F184" t="s">
         <v>559</v>
@@ -8578,10 +8578,10 @@
         <v>886</v>
       </c>
       <c r="H184" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I184" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -8595,7 +8595,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F185" t="s">
         <v>560</v>
@@ -8604,10 +8604,10 @@
         <v>887</v>
       </c>
       <c r="H185" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I185" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F186" t="s">
         <v>561</v>
@@ -8630,10 +8630,10 @@
         <v>888</v>
       </c>
       <c r="H186" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I186" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -8647,7 +8647,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F187" t="s">
         <v>562</v>
@@ -8656,10 +8656,10 @@
         <v>889</v>
       </c>
       <c r="H187" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I187" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -8673,7 +8673,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F188" t="s">
         <v>563</v>
@@ -8682,10 +8682,10 @@
         <v>819</v>
       </c>
       <c r="H188" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I188" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -8699,7 +8699,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F189" t="s">
         <v>564</v>
@@ -8708,10 +8708,10 @@
         <v>890</v>
       </c>
       <c r="H189" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I189" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -8725,7 +8725,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F190" t="s">
         <v>565</v>
@@ -8734,10 +8734,10 @@
         <v>891</v>
       </c>
       <c r="H190" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I190" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -8751,7 +8751,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F191" t="s">
         <v>566</v>
@@ -8760,10 +8760,10 @@
         <v>892</v>
       </c>
       <c r="H191" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I191" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -8777,7 +8777,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F192" t="s">
         <v>567</v>
@@ -8786,10 +8786,10 @@
         <v>893</v>
       </c>
       <c r="H192" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I192" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -8803,7 +8803,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F193" t="s">
         <v>568</v>
@@ -8812,10 +8812,10 @@
         <v>894</v>
       </c>
       <c r="H193" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I193" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -8829,7 +8829,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F194" t="s">
         <v>569</v>
@@ -8838,10 +8838,10 @@
         <v>895</v>
       </c>
       <c r="H194" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I194" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -8855,7 +8855,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F195" t="s">
         <v>570</v>
@@ -8864,10 +8864,10 @@
         <v>896</v>
       </c>
       <c r="H195" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="I195" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -8881,7 +8881,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F196" t="s">
         <v>571</v>
@@ -8890,10 +8890,10 @@
         <v>760</v>
       </c>
       <c r="H196" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I196" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -8907,7 +8907,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F197" t="s">
         <v>572</v>
@@ -8916,10 +8916,10 @@
         <v>751</v>
       </c>
       <c r="H197" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I197" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -8933,7 +8933,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F198" t="s">
         <v>573</v>
@@ -8942,10 +8942,10 @@
         <v>760</v>
       </c>
       <c r="H198" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I198" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -8959,7 +8959,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F199" t="s">
         <v>574</v>
@@ -8968,10 +8968,10 @@
         <v>897</v>
       </c>
       <c r="H199" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I199" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -8985,7 +8985,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F200" t="s">
         <v>575</v>
@@ -8994,10 +8994,10 @@
         <v>898</v>
       </c>
       <c r="H200" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I200" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9011,7 +9011,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F201" t="s">
         <v>576</v>
@@ -9020,10 +9020,10 @@
         <v>899</v>
       </c>
       <c r="H201" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I201" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9037,7 +9037,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F202" t="s">
         <v>577</v>
@@ -9046,10 +9046,10 @@
         <v>900</v>
       </c>
       <c r="H202" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I202" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9063,7 +9063,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F203" t="s">
         <v>578</v>
@@ -9072,10 +9072,10 @@
         <v>901</v>
       </c>
       <c r="H203" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="I203" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9089,7 +9089,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F204" t="s">
         <v>579</v>
@@ -9098,10 +9098,10 @@
         <v>902</v>
       </c>
       <c r="H204" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I204" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9115,7 +9115,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F205" t="s">
         <v>580</v>
@@ -9124,10 +9124,10 @@
         <v>760</v>
       </c>
       <c r="H205" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I205" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9141,7 +9141,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F206" t="s">
         <v>581</v>
@@ -9150,10 +9150,10 @@
         <v>874</v>
       </c>
       <c r="H206" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I206" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -9167,7 +9167,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F207" t="s">
         <v>582</v>
@@ -9176,10 +9176,10 @@
         <v>903</v>
       </c>
       <c r="H207" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I207" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -9193,7 +9193,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F208" t="s">
         <v>583</v>
@@ -9202,10 +9202,10 @@
         <v>803</v>
       </c>
       <c r="H208" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="I208" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9219,7 +9219,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F209" t="s">
         <v>584</v>
@@ -9228,10 +9228,10 @@
         <v>904</v>
       </c>
       <c r="H209" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="I209" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9245,7 +9245,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F210" t="s">
         <v>585</v>
@@ -9254,10 +9254,10 @@
         <v>905</v>
       </c>
       <c r="H210" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I210" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9271,7 +9271,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F211" t="s">
         <v>586</v>
@@ -9280,10 +9280,10 @@
         <v>802</v>
       </c>
       <c r="H211" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I211" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9297,7 +9297,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F212" t="s">
         <v>587</v>
@@ -9306,10 +9306,10 @@
         <v>906</v>
       </c>
       <c r="H212" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I212" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9323,7 +9323,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F213" t="s">
         <v>588</v>
@@ -9332,10 +9332,10 @@
         <v>907</v>
       </c>
       <c r="H213" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I213" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9349,7 +9349,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F214" t="s">
         <v>589</v>
@@ -9358,10 +9358,10 @@
         <v>904</v>
       </c>
       <c r="H214" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I214" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9375,7 +9375,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F215" t="s">
         <v>590</v>
@@ -9384,10 +9384,10 @@
         <v>908</v>
       </c>
       <c r="H215" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I215" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9401,7 +9401,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F216" t="s">
         <v>591</v>
@@ -9410,10 +9410,10 @@
         <v>776</v>
       </c>
       <c r="H216" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="I216" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9427,7 +9427,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F217" t="s">
         <v>592</v>
@@ -9436,10 +9436,10 @@
         <v>909</v>
       </c>
       <c r="H217" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="I217" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9453,7 +9453,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F218" t="s">
         <v>593</v>
@@ -9465,7 +9465,7 @@
         <v>991</v>
       </c>
       <c r="I218" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9479,7 +9479,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F219" t="s">
         <v>594</v>
@@ -9488,10 +9488,10 @@
         <v>760</v>
       </c>
       <c r="H219" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I219" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9505,7 +9505,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F220" t="s">
         <v>595</v>
@@ -9514,10 +9514,10 @@
         <v>760</v>
       </c>
       <c r="H220" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I220" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -9531,7 +9531,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F221" t="s">
         <v>596</v>
@@ -9540,10 +9540,10 @@
         <v>751</v>
       </c>
       <c r="H221" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I221" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -9557,7 +9557,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F222" t="s">
         <v>597</v>
@@ -9566,10 +9566,10 @@
         <v>750</v>
       </c>
       <c r="H222" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I222" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -9583,7 +9583,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F223" t="s">
         <v>598</v>
@@ -9592,10 +9592,10 @@
         <v>911</v>
       </c>
       <c r="H223" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I223" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -9609,7 +9609,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F224" t="s">
         <v>599</v>
@@ -9621,7 +9621,7 @@
         <v>994</v>
       </c>
       <c r="I224" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -9635,7 +9635,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F225" t="s">
         <v>600</v>
@@ -9647,7 +9647,7 @@
         <v>994</v>
       </c>
       <c r="I225" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -9661,7 +9661,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F226" t="s">
         <v>601</v>
@@ -9670,10 +9670,10 @@
         <v>751</v>
       </c>
       <c r="H226" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I226" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -9687,7 +9687,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F227" t="s">
         <v>602</v>
@@ -9699,7 +9699,7 @@
         <v>994</v>
       </c>
       <c r="I227" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -9713,7 +9713,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F228" t="s">
         <v>603</v>
@@ -9722,13 +9722,13 @@
         <v>760</v>
       </c>
       <c r="H228" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I228" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J228" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -9742,7 +9742,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F229" t="s">
         <v>604</v>
@@ -9751,13 +9751,13 @@
         <v>913</v>
       </c>
       <c r="H229" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I229" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J229" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -9771,7 +9771,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F230" t="s">
         <v>605</v>
@@ -9780,10 +9780,10 @@
         <v>914</v>
       </c>
       <c r="H230" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I230" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -9797,7 +9797,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F231" t="s">
         <v>606</v>
@@ -9806,10 +9806,10 @@
         <v>855</v>
       </c>
       <c r="H231" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="I231" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -9823,7 +9823,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F232" t="s">
         <v>607</v>
@@ -9832,10 +9832,10 @@
         <v>751</v>
       </c>
       <c r="H232" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="I232" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -9849,7 +9849,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F233" t="s">
         <v>608</v>
@@ -9858,10 +9858,10 @@
         <v>767</v>
       </c>
       <c r="H233" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="I233" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -9875,7 +9875,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F234" t="s">
         <v>609</v>
@@ -9884,10 +9884,10 @@
         <v>810</v>
       </c>
       <c r="H234" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I234" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -9901,7 +9901,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F235" t="s">
         <v>610</v>
@@ -9910,13 +9910,13 @@
         <v>915</v>
       </c>
       <c r="H235" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I235" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J235" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -9930,7 +9930,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F236" t="s">
         <v>611</v>
@@ -9939,13 +9939,13 @@
         <v>751</v>
       </c>
       <c r="H236" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I236" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J236" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -9959,7 +9959,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F237" t="s">
         <v>612</v>
@@ -9968,10 +9968,10 @@
         <v>916</v>
       </c>
       <c r="H237" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I237" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -9985,7 +9985,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F238" t="s">
         <v>613</v>
@@ -9994,10 +9994,10 @@
         <v>917</v>
       </c>
       <c r="H238" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I238" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10011,7 +10011,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F239" t="s">
         <v>614</v>
@@ -10020,10 +10020,10 @@
         <v>918</v>
       </c>
       <c r="H239" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I239" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10037,7 +10037,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F240" t="s">
         <v>615</v>
@@ -10046,10 +10046,10 @@
         <v>919</v>
       </c>
       <c r="H240" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I240" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -10063,7 +10063,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F241" t="s">
         <v>616</v>
@@ -10072,10 +10072,10 @@
         <v>802</v>
       </c>
       <c r="H241" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I241" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -10089,7 +10089,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F242" t="s">
         <v>617</v>
@@ -10098,10 +10098,10 @@
         <v>760</v>
       </c>
       <c r="H242" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I242" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -10115,7 +10115,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F243" t="s">
         <v>618</v>
@@ -10124,10 +10124,10 @@
         <v>760</v>
       </c>
       <c r="H243" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="I243" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -10141,7 +10141,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F244" t="s">
         <v>619</v>
@@ -10150,10 +10150,10 @@
         <v>920</v>
       </c>
       <c r="H244" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="I244" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -10167,7 +10167,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F245" t="s">
         <v>620</v>
@@ -10176,10 +10176,10 @@
         <v>921</v>
       </c>
       <c r="H245" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="I245" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -10193,7 +10193,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F246" t="s">
         <v>621</v>
@@ -10202,10 +10202,10 @@
         <v>922</v>
       </c>
       <c r="H246" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I246" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -10219,7 +10219,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F247" t="s">
         <v>622</v>
@@ -10228,10 +10228,10 @@
         <v>751</v>
       </c>
       <c r="H247" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I247" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -10245,7 +10245,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F248" t="s">
         <v>623</v>
@@ -10254,10 +10254,10 @@
         <v>923</v>
       </c>
       <c r="H248" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I248" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -10271,7 +10271,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F249" t="s">
         <v>624</v>
@@ -10280,10 +10280,10 @@
         <v>855</v>
       </c>
       <c r="H249" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I249" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -10297,7 +10297,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F250" t="s">
         <v>625</v>
@@ -10306,10 +10306,10 @@
         <v>924</v>
       </c>
       <c r="H250" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I250" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -10323,7 +10323,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F251" t="s">
         <v>626</v>
@@ -10332,10 +10332,10 @@
         <v>800</v>
       </c>
       <c r="H251" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I251" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -10349,7 +10349,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F252" t="s">
         <v>627</v>
@@ -10358,10 +10358,10 @@
         <v>925</v>
       </c>
       <c r="H252" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="I252" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -10375,7 +10375,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F253" t="s">
         <v>628</v>
@@ -10384,10 +10384,10 @@
         <v>799</v>
       </c>
       <c r="H253" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="I253" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10401,7 +10401,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F254" t="s">
         <v>629</v>
@@ -10410,10 +10410,10 @@
         <v>926</v>
       </c>
       <c r="H254" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="I254" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10427,7 +10427,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F255" t="s">
         <v>630</v>
@@ -10436,10 +10436,10 @@
         <v>760</v>
       </c>
       <c r="H255" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I255" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10453,7 +10453,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F256" t="s">
         <v>631</v>
@@ -10462,10 +10462,10 @@
         <v>927</v>
       </c>
       <c r="H256" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I256" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10482,7 +10482,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F257" t="s">
         <v>632</v>
@@ -10491,10 +10491,10 @@
         <v>917</v>
       </c>
       <c r="H257" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I257" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10508,7 +10508,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F258" t="s">
         <v>633</v>
@@ -10517,10 +10517,10 @@
         <v>928</v>
       </c>
       <c r="H258" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I258" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10534,7 +10534,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F259" t="s">
         <v>634</v>
@@ -10543,10 +10543,10 @@
         <v>929</v>
       </c>
       <c r="H259" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I259" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10560,7 +10560,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F260" t="s">
         <v>635</v>
@@ -10569,10 +10569,10 @@
         <v>930</v>
       </c>
       <c r="H260" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I260" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10586,7 +10586,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F261" t="s">
         <v>636</v>
@@ -10595,10 +10595,10 @@
         <v>931</v>
       </c>
       <c r="H261" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I261" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10612,7 +10612,7 @@
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F262" t="s">
         <v>637</v>
@@ -10621,10 +10621,10 @@
         <v>768</v>
       </c>
       <c r="H262" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I262" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10638,7 +10638,7 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F263" t="s">
         <v>638</v>
@@ -10647,10 +10647,10 @@
         <v>932</v>
       </c>
       <c r="H263" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I263" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10664,7 +10664,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F264" t="s">
         <v>639</v>
@@ -10673,10 +10673,10 @@
         <v>760</v>
       </c>
       <c r="H264" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="I264" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10690,7 +10690,7 @@
         <v>266</v>
       </c>
       <c r="E265" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F265" t="s">
         <v>640</v>
@@ -10699,10 +10699,10 @@
         <v>933</v>
       </c>
       <c r="H265" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I265" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10716,7 +10716,7 @@
         <v>267</v>
       </c>
       <c r="E266" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F266" t="s">
         <v>641</v>
@@ -10725,10 +10725,10 @@
         <v>934</v>
       </c>
       <c r="H266" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I266" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10742,7 +10742,7 @@
         <v>268</v>
       </c>
       <c r="E267" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F267" t="s">
         <v>642</v>
@@ -10751,10 +10751,10 @@
         <v>760</v>
       </c>
       <c r="H267" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I267" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -10768,7 +10768,7 @@
         <v>269</v>
       </c>
       <c r="E268" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F268" t="s">
         <v>643</v>
@@ -10777,10 +10777,10 @@
         <v>935</v>
       </c>
       <c r="H268" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I268" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -10794,7 +10794,7 @@
         <v>270</v>
       </c>
       <c r="E269" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F269" t="s">
         <v>644</v>
@@ -10803,10 +10803,10 @@
         <v>765</v>
       </c>
       <c r="H269" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I269" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -10820,7 +10820,7 @@
         <v>271</v>
       </c>
       <c r="E270" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F270" t="s">
         <v>645</v>
@@ -10829,10 +10829,10 @@
         <v>767</v>
       </c>
       <c r="H270" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I270" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10846,7 +10846,7 @@
         <v>272</v>
       </c>
       <c r="E271" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F271" t="s">
         <v>646</v>
@@ -10855,10 +10855,10 @@
         <v>855</v>
       </c>
       <c r="H271" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I271" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10872,7 +10872,7 @@
         <v>273</v>
       </c>
       <c r="E272" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F272" t="s">
         <v>647</v>
@@ -10881,10 +10881,10 @@
         <v>751</v>
       </c>
       <c r="H272" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I272" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10898,7 +10898,7 @@
         <v>274</v>
       </c>
       <c r="E273" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F273" t="s">
         <v>648</v>
@@ -10907,10 +10907,10 @@
         <v>855</v>
       </c>
       <c r="H273" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I273" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10924,7 +10924,7 @@
         <v>275</v>
       </c>
       <c r="E274" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F274" t="s">
         <v>649</v>
@@ -10933,10 +10933,10 @@
         <v>936</v>
       </c>
       <c r="H274" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I274" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -10950,7 +10950,7 @@
         <v>276</v>
       </c>
       <c r="E275" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F275" t="s">
         <v>650</v>
@@ -10959,10 +10959,10 @@
         <v>937</v>
       </c>
       <c r="H275" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I275" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -10976,7 +10976,7 @@
         <v>277</v>
       </c>
       <c r="E276" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F276" t="s">
         <v>651</v>
@@ -10985,10 +10985,10 @@
         <v>938</v>
       </c>
       <c r="H276" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I276" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11002,7 +11002,7 @@
         <v>278</v>
       </c>
       <c r="E277" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F277" t="s">
         <v>652</v>
@@ -11011,10 +11011,10 @@
         <v>939</v>
       </c>
       <c r="H277" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I277" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11028,7 +11028,7 @@
         <v>279</v>
       </c>
       <c r="E278" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F278" t="s">
         <v>653</v>
@@ -11037,10 +11037,10 @@
         <v>760</v>
       </c>
       <c r="H278" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I278" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11054,7 +11054,7 @@
         <v>280</v>
       </c>
       <c r="E279" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F279" t="s">
         <v>654</v>
@@ -11063,10 +11063,10 @@
         <v>940</v>
       </c>
       <c r="H279" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I279" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
         <v>281</v>
       </c>
       <c r="E280" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F280" t="s">
         <v>655</v>
@@ -11089,10 +11089,10 @@
         <v>760</v>
       </c>
       <c r="H280" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I280" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11106,7 +11106,7 @@
         <v>282</v>
       </c>
       <c r="E281" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F281" t="s">
         <v>656</v>
@@ -11115,10 +11115,10 @@
         <v>941</v>
       </c>
       <c r="H281" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I281" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11132,7 +11132,7 @@
         <v>283</v>
       </c>
       <c r="E282" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F282" t="s">
         <v>657</v>
@@ -11141,10 +11141,10 @@
         <v>942</v>
       </c>
       <c r="H282" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="I282" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11161,7 +11161,7 @@
         <v>284</v>
       </c>
       <c r="E283" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F283" t="s">
         <v>658</v>
@@ -11170,10 +11170,10 @@
         <v>795</v>
       </c>
       <c r="H283" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="I283" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11187,7 +11187,7 @@
         <v>285</v>
       </c>
       <c r="E284" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F284" t="s">
         <v>659</v>
@@ -11196,10 +11196,10 @@
         <v>751</v>
       </c>
       <c r="H284" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I284" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11213,7 +11213,7 @@
         <v>286</v>
       </c>
       <c r="E285" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F285" t="s">
         <v>660</v>
@@ -11222,10 +11222,10 @@
         <v>943</v>
       </c>
       <c r="H285" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I285" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11239,7 +11239,7 @@
         <v>287</v>
       </c>
       <c r="E286" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F286" t="s">
         <v>661</v>
@@ -11248,10 +11248,10 @@
         <v>809</v>
       </c>
       <c r="H286" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I286" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11265,7 +11265,7 @@
         <v>288</v>
       </c>
       <c r="E287" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F287" t="s">
         <v>662</v>
@@ -11274,10 +11274,10 @@
         <v>944</v>
       </c>
       <c r="H287" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I287" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11291,7 +11291,7 @@
         <v>289</v>
       </c>
       <c r="E288" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F288" t="s">
         <v>663</v>
@@ -11300,10 +11300,10 @@
         <v>945</v>
       </c>
       <c r="H288" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="I288" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -11317,7 +11317,7 @@
         <v>290</v>
       </c>
       <c r="E289" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F289" t="s">
         <v>664</v>
@@ -11326,10 +11326,10 @@
         <v>946</v>
       </c>
       <c r="H289" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I289" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -11343,7 +11343,7 @@
         <v>291</v>
       </c>
       <c r="E290" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F290" t="s">
         <v>665</v>
@@ -11352,10 +11352,10 @@
         <v>947</v>
       </c>
       <c r="H290" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="I290" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -11369,7 +11369,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F291" t="s">
         <v>666</v>
@@ -11378,10 +11378,10 @@
         <v>948</v>
       </c>
       <c r="H291" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I291" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -11395,7 +11395,7 @@
         <v>293</v>
       </c>
       <c r="E292" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F292" t="s">
         <v>667</v>
@@ -11404,10 +11404,10 @@
         <v>915</v>
       </c>
       <c r="H292" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I292" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -11421,7 +11421,7 @@
         <v>294</v>
       </c>
       <c r="E293" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F293" t="s">
         <v>668</v>
@@ -11430,10 +11430,10 @@
         <v>949</v>
       </c>
       <c r="H293" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I293" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -11447,7 +11447,7 @@
         <v>295</v>
       </c>
       <c r="E294" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F294" t="s">
         <v>669</v>
@@ -11456,10 +11456,10 @@
         <v>853</v>
       </c>
       <c r="H294" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I294" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -11473,7 +11473,7 @@
         <v>296</v>
       </c>
       <c r="E295" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F295" t="s">
         <v>670</v>
@@ -11482,10 +11482,10 @@
         <v>950</v>
       </c>
       <c r="H295" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I295" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -11499,7 +11499,7 @@
         <v>297</v>
       </c>
       <c r="E296" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F296" t="s">
         <v>671</v>
@@ -11508,10 +11508,10 @@
         <v>751</v>
       </c>
       <c r="H296" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I296" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -11528,7 +11528,7 @@
         <v>298</v>
       </c>
       <c r="E297" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F297" t="s">
         <v>672</v>
@@ -11537,10 +11537,10 @@
         <v>751</v>
       </c>
       <c r="H297" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I297" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -11554,7 +11554,7 @@
         <v>299</v>
       </c>
       <c r="E298" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F298" t="s">
         <v>673</v>
@@ -11563,13 +11563,13 @@
         <v>951</v>
       </c>
       <c r="H298" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I298" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J298" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -11583,7 +11583,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F299" t="s">
         <v>674</v>
@@ -11592,13 +11592,13 @@
         <v>952</v>
       </c>
       <c r="H299" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I299" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J299" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -11612,7 +11612,7 @@
         <v>301</v>
       </c>
       <c r="E300" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F300" t="s">
         <v>675</v>
@@ -11621,13 +11621,13 @@
         <v>768</v>
       </c>
       <c r="H300" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="I300" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="J300" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -11641,7 +11641,7 @@
         <v>302</v>
       </c>
       <c r="E301" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F301" t="s">
         <v>676</v>
@@ -11650,10 +11650,10 @@
         <v>953</v>
       </c>
       <c r="H301" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I301" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -11667,7 +11667,7 @@
         <v>303</v>
       </c>
       <c r="E302" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F302" t="s">
         <v>677</v>
@@ -11676,10 +11676,10 @@
         <v>954</v>
       </c>
       <c r="H302" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I302" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -11693,7 +11693,7 @@
         <v>304</v>
       </c>
       <c r="E303" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F303" t="s">
         <v>678</v>
@@ -11702,10 +11702,10 @@
         <v>911</v>
       </c>
       <c r="H303" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I303" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -11719,7 +11719,7 @@
         <v>305</v>
       </c>
       <c r="E304" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F304" t="s">
         <v>679</v>
@@ -11728,10 +11728,10 @@
         <v>760</v>
       </c>
       <c r="H304" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I304" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11745,7 +11745,7 @@
         <v>306</v>
       </c>
       <c r="E305" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F305" t="s">
         <v>680</v>
@@ -11754,10 +11754,10 @@
         <v>760</v>
       </c>
       <c r="H305" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I305" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11771,7 +11771,7 @@
         <v>307</v>
       </c>
       <c r="E306" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F306" t="s">
         <v>681</v>
@@ -11780,10 +11780,10 @@
         <v>751</v>
       </c>
       <c r="H306" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I306" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11800,7 +11800,7 @@
         <v>308</v>
       </c>
       <c r="E307" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F307" t="s">
         <v>682</v>
@@ -11809,10 +11809,10 @@
         <v>955</v>
       </c>
       <c r="H307" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I307" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11829,7 +11829,7 @@
         <v>309</v>
       </c>
       <c r="E308" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F308" t="s">
         <v>683</v>
@@ -11838,10 +11838,10 @@
         <v>956</v>
       </c>
       <c r="H308" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I308" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11858,7 +11858,7 @@
         <v>310</v>
       </c>
       <c r="E309" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F309" t="s">
         <v>684</v>
@@ -11867,10 +11867,10 @@
         <v>957</v>
       </c>
       <c r="H309" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I309" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11884,7 +11884,7 @@
         <v>311</v>
       </c>
       <c r="E310" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F310" t="s">
         <v>685</v>
@@ -11893,10 +11893,10 @@
         <v>772</v>
       </c>
       <c r="H310" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I310" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -11910,7 +11910,7 @@
         <v>312</v>
       </c>
       <c r="E311" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F311" t="s">
         <v>686</v>
@@ -11919,10 +11919,10 @@
         <v>958</v>
       </c>
       <c r="H311" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I311" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -11936,7 +11936,7 @@
         <v>313</v>
       </c>
       <c r="E312" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F312" t="s">
         <v>687</v>
@@ -11945,10 +11945,10 @@
         <v>819</v>
       </c>
       <c r="H312" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="I312" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -11962,7 +11962,7 @@
         <v>314</v>
       </c>
       <c r="E313" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F313" t="s">
         <v>688</v>
@@ -11971,10 +11971,10 @@
         <v>959</v>
       </c>
       <c r="H313" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I313" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -11988,7 +11988,7 @@
         <v>315</v>
       </c>
       <c r="E314" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F314" t="s">
         <v>689</v>
@@ -11997,10 +11997,10 @@
         <v>824</v>
       </c>
       <c r="H314" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I314" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12014,7 +12014,7 @@
         <v>316</v>
       </c>
       <c r="E315" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F315" t="s">
         <v>690</v>
@@ -12023,10 +12023,10 @@
         <v>776</v>
       </c>
       <c r="H315" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I315" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12040,7 +12040,7 @@
         <v>317</v>
       </c>
       <c r="E316" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F316" t="s">
         <v>691</v>
@@ -12049,10 +12049,10 @@
         <v>819</v>
       </c>
       <c r="H316" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I316" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12066,7 +12066,7 @@
         <v>318</v>
       </c>
       <c r="E317" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F317" t="s">
         <v>692</v>
@@ -12075,10 +12075,10 @@
         <v>819</v>
       </c>
       <c r="H317" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I317" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12092,7 +12092,7 @@
         <v>319</v>
       </c>
       <c r="E318" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F318" t="s">
         <v>693</v>
@@ -12101,10 +12101,10 @@
         <v>960</v>
       </c>
       <c r="H318" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I318" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12118,7 +12118,7 @@
         <v>320</v>
       </c>
       <c r="E319" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F319" t="s">
         <v>694</v>
@@ -12127,10 +12127,10 @@
         <v>961</v>
       </c>
       <c r="H319" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I319" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12144,7 +12144,7 @@
         <v>321</v>
       </c>
       <c r="E320" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F320" t="s">
         <v>695</v>
@@ -12153,10 +12153,10 @@
         <v>962</v>
       </c>
       <c r="H320" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="I320" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12170,7 +12170,7 @@
         <v>322</v>
       </c>
       <c r="E321" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F321" t="s">
         <v>696</v>
@@ -12179,10 +12179,10 @@
         <v>963</v>
       </c>
       <c r="H321" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I321" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12196,7 +12196,7 @@
         <v>323</v>
       </c>
       <c r="E322" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F322" t="s">
         <v>697</v>
@@ -12205,10 +12205,10 @@
         <v>808</v>
       </c>
       <c r="H322" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I322" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12222,7 +12222,7 @@
         <v>324</v>
       </c>
       <c r="E323" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F323" t="s">
         <v>698</v>
@@ -12231,10 +12231,10 @@
         <v>964</v>
       </c>
       <c r="H323" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I323" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12248,7 +12248,7 @@
         <v>325</v>
       </c>
       <c r="E324" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F324" t="s">
         <v>699</v>
@@ -12257,10 +12257,10 @@
         <v>751</v>
       </c>
       <c r="H324" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I324" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12274,7 +12274,7 @@
         <v>326</v>
       </c>
       <c r="E325" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F325" t="s">
         <v>700</v>
@@ -12283,10 +12283,10 @@
         <v>965</v>
       </c>
       <c r="H325" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I325" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12300,7 +12300,7 @@
         <v>327</v>
       </c>
       <c r="E326" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F326" t="s">
         <v>701</v>
@@ -12309,10 +12309,10 @@
         <v>966</v>
       </c>
       <c r="H326" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I326" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -12326,7 +12326,7 @@
         <v>328</v>
       </c>
       <c r="E327" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F327" t="s">
         <v>702</v>
@@ -12335,10 +12335,10 @@
         <v>819</v>
       </c>
       <c r="H327" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I327" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -12352,7 +12352,7 @@
         <v>329</v>
       </c>
       <c r="E328" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F328" t="s">
         <v>703</v>
@@ -12361,10 +12361,10 @@
         <v>967</v>
       </c>
       <c r="H328" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I328" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -12378,7 +12378,7 @@
         <v>330</v>
       </c>
       <c r="E329" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F329" t="s">
         <v>704</v>
@@ -12387,10 +12387,10 @@
         <v>760</v>
       </c>
       <c r="H329" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I329" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>331</v>
       </c>
       <c r="E330" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F330" t="s">
         <v>705</v>
@@ -12413,10 +12413,10 @@
         <v>760</v>
       </c>
       <c r="H330" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I330" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12430,7 +12430,7 @@
         <v>332</v>
       </c>
       <c r="E331" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F331" t="s">
         <v>706</v>
@@ -12439,10 +12439,10 @@
         <v>760</v>
       </c>
       <c r="H331" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I331" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12456,7 +12456,7 @@
         <v>333</v>
       </c>
       <c r="E332" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F332" t="s">
         <v>707</v>
@@ -12465,10 +12465,10 @@
         <v>751</v>
       </c>
       <c r="H332" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I332" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12482,7 +12482,7 @@
         <v>334</v>
       </c>
       <c r="E333" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F333" t="s">
         <v>708</v>
@@ -12491,10 +12491,10 @@
         <v>751</v>
       </c>
       <c r="H333" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I333" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12511,7 +12511,7 @@
         <v>335</v>
       </c>
       <c r="E334" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F334" t="s">
         <v>709</v>
@@ -12520,10 +12520,10 @@
         <v>968</v>
       </c>
       <c r="H334" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I334" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12540,7 +12540,7 @@
         <v>336</v>
       </c>
       <c r="E335" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F335" t="s">
         <v>710</v>
@@ -12549,10 +12549,10 @@
         <v>969</v>
       </c>
       <c r="H335" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I335" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12569,7 +12569,7 @@
         <v>337</v>
       </c>
       <c r="E336" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F336" t="s">
         <v>711</v>
@@ -12578,10 +12578,10 @@
         <v>819</v>
       </c>
       <c r="H336" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I336" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12598,7 +12598,7 @@
         <v>338</v>
       </c>
       <c r="E337" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F337" t="s">
         <v>712</v>
@@ -12607,10 +12607,10 @@
         <v>970</v>
       </c>
       <c r="H337" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I337" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12627,7 +12627,7 @@
         <v>339</v>
       </c>
       <c r="E338" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F338" t="s">
         <v>713</v>
@@ -12636,10 +12636,10 @@
         <v>971</v>
       </c>
       <c r="H338" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="I338" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12656,7 +12656,7 @@
         <v>340</v>
       </c>
       <c r="E339" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F339" t="s">
         <v>714</v>
@@ -12665,10 +12665,10 @@
         <v>972</v>
       </c>
       <c r="H339" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="I339" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12685,7 +12685,7 @@
         <v>341</v>
       </c>
       <c r="E340" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F340" t="s">
         <v>715</v>
@@ -12694,10 +12694,10 @@
         <v>973</v>
       </c>
       <c r="H340" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="I340" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12714,7 +12714,7 @@
         <v>342</v>
       </c>
       <c r="E341" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F341" t="s">
         <v>716</v>
@@ -12723,10 +12723,10 @@
         <v>751</v>
       </c>
       <c r="H341" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="I341" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12740,7 +12740,7 @@
         <v>343</v>
       </c>
       <c r="E342" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F342" t="s">
         <v>717</v>
@@ -12749,10 +12749,10 @@
         <v>750</v>
       </c>
       <c r="H342" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I342" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12766,7 +12766,7 @@
         <v>344</v>
       </c>
       <c r="E343" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F343" t="s">
         <v>718</v>
@@ -12775,10 +12775,10 @@
         <v>760</v>
       </c>
       <c r="H343" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I343" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12792,7 +12792,7 @@
         <v>345</v>
       </c>
       <c r="E344" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F344" t="s">
         <v>719</v>
@@ -12801,10 +12801,10 @@
         <v>760</v>
       </c>
       <c r="H344" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I344" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12818,7 +12818,7 @@
         <v>346</v>
       </c>
       <c r="E345" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F345" t="s">
         <v>720</v>
@@ -12827,10 +12827,10 @@
         <v>760</v>
       </c>
       <c r="H345" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I345" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12844,7 +12844,7 @@
         <v>347</v>
       </c>
       <c r="E346" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F346" t="s">
         <v>721</v>
@@ -12853,10 +12853,10 @@
         <v>760</v>
       </c>
       <c r="H346" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I346" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -12870,7 +12870,7 @@
         <v>348</v>
       </c>
       <c r="E347" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F347" t="s">
         <v>722</v>
@@ -12879,10 +12879,10 @@
         <v>760</v>
       </c>
       <c r="H347" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I347" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -12896,7 +12896,7 @@
         <v>349</v>
       </c>
       <c r="E348" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F348" t="s">
         <v>723</v>
@@ -12905,10 +12905,10 @@
         <v>855</v>
       </c>
       <c r="H348" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I348" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -12922,7 +12922,7 @@
         <v>350</v>
       </c>
       <c r="E349" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F349" t="s">
         <v>724</v>
@@ -12931,10 +12931,10 @@
         <v>751</v>
       </c>
       <c r="H349" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I349" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -12948,7 +12948,7 @@
         <v>351</v>
       </c>
       <c r="E350" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F350" t="s">
         <v>725</v>
@@ -12957,10 +12957,10 @@
         <v>760</v>
       </c>
       <c r="H350" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I350" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -12974,7 +12974,7 @@
         <v>352</v>
       </c>
       <c r="E351" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F351" t="s">
         <v>726</v>
@@ -12983,10 +12983,10 @@
         <v>974</v>
       </c>
       <c r="H351" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I351" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13000,7 +13000,7 @@
         <v>353</v>
       </c>
       <c r="E352" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F352" t="s">
         <v>727</v>
@@ -13009,10 +13009,10 @@
         <v>975</v>
       </c>
       <c r="H352" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I352" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
@@ -13026,7 +13026,7 @@
         <v>354</v>
       </c>
       <c r="E353" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F353" t="s">
         <v>728</v>
@@ -13035,10 +13035,10 @@
         <v>976</v>
       </c>
       <c r="H353" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I353" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
@@ -13052,7 +13052,7 @@
         <v>355</v>
       </c>
       <c r="E354" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F354" t="s">
         <v>729</v>
@@ -13061,10 +13061,10 @@
         <v>977</v>
       </c>
       <c r="H354" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I354" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
@@ -13078,7 +13078,7 @@
         <v>356</v>
       </c>
       <c r="E355" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F355" t="s">
         <v>730</v>
@@ -13087,10 +13087,10 @@
         <v>978</v>
       </c>
       <c r="H355" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I355" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -13104,16 +13104,16 @@
         <v>357</v>
       </c>
       <c r="E356" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F356" t="s">
         <v>731</v>
       </c>
       <c r="H356" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I356" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -13127,7 +13127,7 @@
         <v>358</v>
       </c>
       <c r="E357" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F357" t="s">
         <v>732</v>
@@ -13136,10 +13136,10 @@
         <v>979</v>
       </c>
       <c r="H357" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I357" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -13153,7 +13153,7 @@
         <v>359</v>
       </c>
       <c r="E358" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F358" t="s">
         <v>733</v>
@@ -13162,10 +13162,10 @@
         <v>855</v>
       </c>
       <c r="H358" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="I358" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -13179,7 +13179,7 @@
         <v>360</v>
       </c>
       <c r="E359" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F359" t="s">
         <v>734</v>
@@ -13188,10 +13188,10 @@
         <v>980</v>
       </c>
       <c r="H359" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I359" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -13205,7 +13205,7 @@
         <v>361</v>
       </c>
       <c r="E360" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F360" t="s">
         <v>735</v>
@@ -13214,10 +13214,10 @@
         <v>981</v>
       </c>
       <c r="H360" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I360" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -13231,7 +13231,7 @@
         <v>362</v>
       </c>
       <c r="E361" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F361" t="s">
         <v>736</v>
@@ -13240,10 +13240,10 @@
         <v>878</v>
       </c>
       <c r="H361" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I361" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -13257,7 +13257,7 @@
         <v>363</v>
       </c>
       <c r="E362" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F362" t="s">
         <v>737</v>
@@ -13266,16 +13266,16 @@
         <v>982</v>
       </c>
       <c r="H362" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K362" t="s">
         <v>1078</v>
       </c>
-      <c r="I362" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K362" t="s">
-        <v>1079</v>
-      </c>
       <c r="L362" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -13289,7 +13289,7 @@
         <v>364</v>
       </c>
       <c r="E363" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F363" t="s">
         <v>738</v>
@@ -13298,16 +13298,16 @@
         <v>983</v>
       </c>
       <c r="H363" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I363" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K363" t="s">
         <v>1078</v>
       </c>
-      <c r="I363" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K363" t="s">
-        <v>1079</v>
-      </c>
       <c r="L363" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -13321,7 +13321,7 @@
         <v>365</v>
       </c>
       <c r="E364" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F364" t="s">
         <v>739</v>
@@ -13330,10 +13330,10 @@
         <v>750</v>
       </c>
       <c r="H364" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I364" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
@@ -13347,7 +13347,7 @@
         <v>366</v>
       </c>
       <c r="E365" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F365" t="s">
         <v>740</v>
@@ -13356,10 +13356,10 @@
         <v>760</v>
       </c>
       <c r="H365" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I365" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
@@ -13373,7 +13373,7 @@
         <v>367</v>
       </c>
       <c r="E366" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F366" t="s">
         <v>741</v>
@@ -13382,10 +13382,10 @@
         <v>760</v>
       </c>
       <c r="H366" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
       <c r="I366" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
@@ -13399,7 +13399,7 @@
         <v>368</v>
       </c>
       <c r="E367" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F367" t="s">
         <v>742</v>
@@ -13408,10 +13408,10 @@
         <v>984</v>
       </c>
       <c r="H367" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
       <c r="I367" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
@@ -13425,7 +13425,7 @@
         <v>369</v>
       </c>
       <c r="E368" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F368" t="s">
         <v>743</v>
@@ -13434,10 +13434,10 @@
         <v>985</v>
       </c>
       <c r="H368" t="s">
-        <v>1080</v>
+        <v>1127</v>
       </c>
       <c r="I368" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13451,7 +13451,7 @@
         <v>370</v>
       </c>
       <c r="E369" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F369" t="s">
         <v>744</v>
@@ -13460,10 +13460,10 @@
         <v>986</v>
       </c>
       <c r="H369" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="I369" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13477,7 +13477,7 @@
         <v>371</v>
       </c>
       <c r="E370" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F370" t="s">
         <v>745</v>
@@ -13489,7 +13489,7 @@
         <v>1014</v>
       </c>
       <c r="I370" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -13503,7 +13503,7 @@
         <v>372</v>
       </c>
       <c r="E371" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F371" t="s">
         <v>746</v>
@@ -13515,7 +13515,7 @@
         <v>1014</v>
       </c>
       <c r="I371" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -13529,7 +13529,7 @@
         <v>373</v>
       </c>
       <c r="E372" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F372" t="s">
         <v>747</v>
@@ -13541,7 +13541,7 @@
         <v>1014</v>
       </c>
       <c r="I372" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -13555,7 +13555,7 @@
         <v>374</v>
       </c>
       <c r="E373" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F373" t="s">
         <v>748</v>
@@ -13567,7 +13567,7 @@
         <v>1014</v>
       </c>
       <c r="I373" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -13581,7 +13581,7 @@
         <v>375</v>
       </c>
       <c r="E374" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F374" t="s">
         <v>749</v>
@@ -13593,7 +13593,7 @@
         <v>1014</v>
       </c>
       <c r="I374" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
